--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -5,22 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\SVV FD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32876C2D-A080-4CDA-8E6E-3FAD120A565D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A5394E-4427-46C9-9FB9-54F4161B2F0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Weigjt&amp;Balance" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -212,6 +221,115 @@
   </si>
   <si>
     <t>Xander</t>
+  </si>
+  <si>
+    <t>Payload Computations</t>
+  </si>
+  <si>
+    <t>Mass and Balance Computations</t>
+  </si>
+  <si>
+    <t>Crew and pax</t>
+  </si>
+  <si>
+    <t>Mass [pounds]</t>
+  </si>
+  <si>
+    <t>Moment [inch-pound]</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Mass [Pound]</t>
+  </si>
+  <si>
+    <t>Moment [inch-pounds]</t>
+  </si>
+  <si>
+    <t>Seat 1</t>
+  </si>
+  <si>
+    <t>Basic Empty Mass</t>
+  </si>
+  <si>
+    <t>Seat 2</t>
+  </si>
+  <si>
+    <t>Seat 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xcg datum at BEM = </t>
+  </si>
+  <si>
+    <t>Seat 4</t>
+  </si>
+  <si>
+    <t>Seat 5</t>
+  </si>
+  <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>Seat 6</t>
+  </si>
+  <si>
+    <t>Seat 7</t>
+  </si>
+  <si>
+    <t>Seat 8</t>
+  </si>
+  <si>
+    <t>Seat 10</t>
+  </si>
+  <si>
+    <t>Zero Fuel Mass</t>
+  </si>
+  <si>
+    <t>Baggage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xcg datum at ZFM = </t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Aft Cabin</t>
+  </si>
+  <si>
+    <t>Fuel Load</t>
+  </si>
+  <si>
+    <t>Ramp Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xcg datum at RM = </t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>cg datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [inches]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -221,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +355,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -254,11 +401,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -279,6 +453,33 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
@@ -2763,4 +2964,468 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6141737-6818-4B76-A9F7-A606D8A3676F}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>10480</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5">
+        <v>102</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>13362</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>17334</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="9">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="9">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="9">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="5">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>14124</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5">
+        <v>99</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>24849</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="5">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>16064</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="5">
+        <v>81</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>23328</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13">
+        <f>C19</f>
+        <v>760</v>
+      </c>
+      <c r="H11" s="13">
+        <f>D19</f>
+        <v>163013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>288</v>
+      </c>
+      <c r="C12" s="5">
+        <v>99</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>28512</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="5">
+        <v>88</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>14960</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="16">
+        <f>H15/G15</f>
+        <v>285.74158690176324</v>
+      </c>
+      <c r="G15" s="9">
+        <f>G7+G11</f>
+        <v>9925</v>
+      </c>
+      <c r="H15" s="9">
+        <f>H11+H7</f>
+        <v>2835985.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>760</v>
+      </c>
+      <c r="D19" s="18">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>163013</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13">
+        <v>4100</v>
+      </c>
+      <c r="H19" s="13">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="16">
+        <f>H23/G23</f>
+        <v>285.67096256684493</v>
+      </c>
+      <c r="G23" s="9">
+        <f>G15+G19</f>
+        <v>14025</v>
+      </c>
+      <c r="H23" s="9">
+        <f>H19+H15</f>
+        <v>4006535.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="9"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A5394E-4427-46C9-9FB9-54F4161B2F0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89490E0E-E1A2-47B7-9F6E-A91FFBF8F278}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
     <sheet name="Weigjt&amp;Balance" sheetId="2" r:id="rId2"/>
+    <sheet name="Changing CG" sheetId="3" r:id="rId3"/>
+    <sheet name="Shifted CG Weight and Balance" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -331,6 +333,54 @@
       <t xml:space="preserve"> [inches]</t>
     </r>
   </si>
+  <si>
+    <t>Measurement nr.</t>
+  </si>
+  <si>
+    <t>F.Used</t>
+  </si>
+  <si>
+    <t>Fremaining</t>
+  </si>
+  <si>
+    <t>Fremaining upper</t>
+  </si>
+  <si>
+    <t>Fremaining lower</t>
+  </si>
+  <si>
+    <t>Fmoment upper</t>
+  </si>
+  <si>
+    <t>Fmoment lower</t>
+  </si>
+  <si>
+    <t>Fmoment rem</t>
+  </si>
+  <si>
+    <t>Xc.g in flight (inches)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim Curve </t>
+  </si>
+  <si>
+    <t>Shifted CG</t>
+  </si>
+  <si>
+    <t>Measurement nr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremaining </t>
+  </si>
+  <si>
+    <t>xlemac</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Xc.g [MAC]</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +433,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -453,14 +512,13 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -475,11 +533,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
@@ -2970,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6141737-6818-4B76-A9F7-A606D8A3676F}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2987,62 +3047,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -3058,12 +3118,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>10480</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -3079,10 +3139,10 @@
         <f t="shared" si="0"/>
         <v>13362</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3098,16 +3158,16 @@
         <f t="shared" si="0"/>
         <v>17334</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>9165</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -3126,10 +3186,10 @@
         <f t="shared" si="0"/>
         <v>14124</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -3145,12 +3205,12 @@
         <f t="shared" si="0"/>
         <v>24849</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -3166,10 +3226,10 @@
         <f t="shared" si="0"/>
         <v>16064</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -3185,13 +3245,13 @@
         <f t="shared" si="0"/>
         <v>23328</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14">
         <f>C19</f>
         <v>760</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <f>D19</f>
         <v>163013</v>
       </c>
@@ -3210,10 +3270,10 @@
         <f t="shared" si="0"/>
         <v>28512</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -3229,42 +3289,42 @@
         <f t="shared" si="0"/>
         <v>14960</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="11">
         <f>H15/G15</f>
         <v>285.74158690176324</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <f>G7+G11</f>
         <v>9925</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="10">
         <f>H11+H7</f>
         <v>2835985.25</v>
       </c>
@@ -3282,10 +3342,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -3300,12 +3360,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -3317,76 +3377,1019 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
         <f>SUM(C5:C13)+SUM(C16:C18)</f>
         <v>760</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="9">
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>163013</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14">
         <v>4100</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="14">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="11">
         <f>H23/G23</f>
         <v>285.67096256684493</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <f>G15+G19</f>
         <v>14025</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="10">
         <f>H19+H15</f>
         <v>4006535.25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="9"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C39D154-1F26-4105-A8FA-B8B6FE50AD62}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1">
+        <v>251.56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>80.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>'Flight Data'!L59</f>
+        <v>778</v>
+      </c>
+      <c r="C8">
+        <f>'Weigjt&amp;Balance'!G$19-B8</f>
+        <v>3322</v>
+      </c>
+      <c r="D8">
+        <v>3400</v>
+      </c>
+      <c r="E8">
+        <f>D8-100</f>
+        <v>3300</v>
+      </c>
+      <c r="F8">
+        <f>9696.97*100</f>
+        <v>969696.99999999988</v>
+      </c>
+      <c r="G8">
+        <f>F10</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="H8">
+        <f>((F8-G8)/(D8-E8))*(C8-E8)+G8</f>
+        <v>925067.73999999987</v>
+      </c>
+      <c r="I8">
+        <f>('Weigjt&amp;Balance'!H$15+H8)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C8)</f>
+        <v>283.91733902015551</v>
+      </c>
+      <c r="J8">
+        <f>(I8-B$1)/B$2</f>
+        <v>0.39957198098487906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>'Flight Data'!L60</f>
+        <v>797</v>
+      </c>
+      <c r="C9">
+        <f>'Weigjt&amp;Balance'!G$19-B9</f>
+        <v>3303</v>
+      </c>
+      <c r="D9">
+        <v>3400</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E14" si="0">D9-100</f>
+        <v>3300</v>
+      </c>
+      <c r="F9">
+        <f>9696.97*100</f>
+        <v>969696.99999999988</v>
+      </c>
+      <c r="G9">
+        <f>F11</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H19" si="1">((F9-G9)/(D9-E9))*(C9-E9)+G9</f>
+        <v>914196.50999999989</v>
+      </c>
+      <c r="I9">
+        <f>('Weigjt&amp;Balance'!H$15+H9)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C9)</f>
+        <v>283.50330813426064</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J14" si="2">(I9-B$1)/B$2</f>
+        <v>0.39445922615782453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" ref="A10:A14" si="3">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f>'Flight Data'!L61</f>
+        <v>826</v>
+      </c>
+      <c r="C10">
+        <f>'Weigjt&amp;Balance'!G$19-B10</f>
+        <v>3274</v>
+      </c>
+      <c r="D10">
+        <v>3300</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F10">
+        <f>9124.8*100</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G10">
+        <f>8839.04*100</f>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>905050.24</v>
+      </c>
+      <c r="I10">
+        <f>('Weigjt&amp;Balance'!H$15+H10)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C10)</f>
+        <v>283.4332517614971</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.39359411906022596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f>'Flight Data'!L62</f>
+        <v>839</v>
+      </c>
+      <c r="C11">
+        <f>'Weigjt&amp;Balance'!G$19-B11</f>
+        <v>3261</v>
+      </c>
+      <c r="D11">
+        <v>3300</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F14" si="4">9124.8*100</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="5">8839.04*100</f>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>901335.36</v>
+      </c>
+      <c r="I11">
+        <f>('Weigjt&amp;Balance'!H$15+H11)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C11)</f>
+        <v>283.43095783406642</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.39356579197414687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f>'Flight Data'!L63</f>
+        <v>857</v>
+      </c>
+      <c r="C12">
+        <f>'Weigjt&amp;Balance'!G$19-B12</f>
+        <v>3243</v>
+      </c>
+      <c r="D12">
+        <v>3300</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>896191.68</v>
+      </c>
+      <c r="I12">
+        <f>('Weigjt&amp;Balance'!H$15+H12)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C12)</f>
+        <v>283.42777414945323</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.3935264775185629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f>'Flight Data'!L64</f>
+        <v>872</v>
+      </c>
+      <c r="C13">
+        <f>'Weigjt&amp;Balance'!G$19-B13</f>
+        <v>3228</v>
+      </c>
+      <c r="D13">
+        <v>3300</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>891905.28</v>
+      </c>
+      <c r="I13">
+        <f>('Weigjt&amp;Balance'!H$15+H13)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C13)</f>
+        <v>283.42511442256523</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.39349363327445325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>'Flight Data'!L65</f>
+        <v>889</v>
+      </c>
+      <c r="C14">
+        <f>'Weigjt&amp;Balance'!G$19-B14</f>
+        <v>3211</v>
+      </c>
+      <c r="D14">
+        <v>3300</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>887047.3600000001</v>
+      </c>
+      <c r="I14">
+        <f>('Weigjt&amp;Balance'!H$15+H14)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C14)</f>
+        <v>283.4220927222899</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.39345631911941098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>'Flight Data'!L75</f>
+        <v>912</v>
+      </c>
+      <c r="C18">
+        <f>'Shifted CG Weight and Balance'!G$19-'Changing CG'!B18</f>
+        <v>3188</v>
+      </c>
+      <c r="D18">
+        <v>3200</v>
+      </c>
+      <c r="E18">
+        <v>3100</v>
+      </c>
+      <c r="F18">
+        <f>9124.8*100</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G18">
+        <f>8839.04*100</f>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H18">
+        <f>((F18-G18)/(D18-E18))*(C18-E18)+G18</f>
+        <v>909050.87999999989</v>
+      </c>
+      <c r="I18">
+        <f>('Shifted CG Weight and Balance'!H$15+'Changing CG'!H18)/('Shifted CG Weight and Balance'!G$15+'Changing CG'!C18)</f>
+        <v>284.55533668878212</v>
+      </c>
+      <c r="J18">
+        <f>(I18-B$1)/B$2</f>
+        <v>0.4074504407110659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>'Flight Data'!L76</f>
+        <v>944</v>
+      </c>
+      <c r="C19">
+        <f>'Shifted CG Weight and Balance'!G$19-'Changing CG'!B19</f>
+        <v>3156</v>
+      </c>
+      <c r="D19">
+        <v>3200</v>
+      </c>
+      <c r="E19">
+        <v>3100</v>
+      </c>
+      <c r="F19">
+        <f>9124.8*100</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G19">
+        <f>8839.04*100</f>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>899906.55999999994</v>
+      </c>
+      <c r="I19">
+        <f>('Shifted CG Weight and Balance'!H$15+'Changing CG'!H19)/('Shifted CG Weight and Balance'!G$15+'Changing CG'!C19)</f>
+        <v>284.55238972555617</v>
+      </c>
+      <c r="J19">
+        <f>(I19-B$1)/B$2</f>
+        <v>0.40741404946352389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>10480</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5">
+        <v>102</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>13362</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>17334</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="10">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="10">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="10">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="5">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>14124</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5">
+        <v>99</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>24849</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="5">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>16064</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="5">
+        <v>81</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>23328</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14">
+        <f>C19</f>
+        <v>760</v>
+      </c>
+      <c r="H11" s="14">
+        <f>D19</f>
+        <v>149351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <v>99</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>14850</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="5">
+        <v>88</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>14960</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="11">
+        <f>H15/G15</f>
+        <v>284.36506297229221</v>
+      </c>
+      <c r="G15" s="10">
+        <f>G7+G11</f>
+        <v>9925</v>
+      </c>
+      <c r="H15" s="10">
+        <f>H11+H7</f>
+        <v>2822323.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>760</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>149351</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14">
+        <v>4100</v>
+      </c>
+      <c r="H19" s="14">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="11">
+        <f>H23/G23</f>
+        <v>284.69684491978609</v>
+      </c>
+      <c r="G23" s="10">
+        <f>G15+G19</f>
+        <v>14025</v>
+      </c>
+      <c r="H23" s="10">
+        <f>H19+H15</f>
+        <v>3992873.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89490E0E-E1A2-47B7-9F6E-A91FFBF8F278}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7D04B-8432-464F-9C6B-69E72C1D6855}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Weigjt&amp;Balance" sheetId="2" r:id="rId2"/>
-    <sheet name="Changing CG" sheetId="3" r:id="rId3"/>
-    <sheet name="Shifted CG Weight and Balance" sheetId="4" r:id="rId4"/>
+    <sheet name="Weight&amp;Balance" sheetId="2" r:id="rId2"/>
+    <sheet name="Sartaj Moved Weight and Balance" sheetId="4" r:id="rId3"/>
+    <sheet name="Changing CG" sheetId="3" r:id="rId4"/>
+    <sheet name="Reference Data" sheetId="6" r:id="rId5"/>
+    <sheet name="Reference Weight&amp;Balance" sheetId="8" r:id="rId6"/>
+    <sheet name="Reference Moved Weight&amp;Balance" sheetId="10" r:id="rId7"/>
+    <sheet name="Changing CG Reference" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="134">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -380,6 +384,81 @@
   </si>
   <si>
     <t>Xc.g [MAC]</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>8.2</t>
   </si>
 </sst>
 </file>
@@ -514,14 +593,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -530,21 +619,683 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1275,6 +2026,72 @@
         <a:xfrm>
           <a:off x="4017566" y="996622"/>
           <a:ext cx="1802209" cy="3332772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464741</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCF4BCD-9AE0-43ED-BF25-148C1E7DF785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4114721" y="958522"/>
+          <a:ext cx="1855549" cy="3203232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2861,162 +3678,162 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16">
-    <cfRule type="containsBlanks" dxfId="31" priority="39">
+    <cfRule type="containsBlanks" dxfId="63" priority="39">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34 D34:J34">
-    <cfRule type="containsBlanks" dxfId="30" priority="32">
+    <cfRule type="containsBlanks" dxfId="62" priority="32">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="29" priority="34">
+    <cfRule type="containsBlanks" dxfId="61" priority="34">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="28" priority="33">
+    <cfRule type="containsBlanks" dxfId="60" priority="33">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:M65">
-    <cfRule type="containsBlanks" dxfId="27" priority="30">
+    <cfRule type="containsBlanks" dxfId="59" priority="30">
       <formula>LEN(TRIM(D59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:J50">
-    <cfRule type="containsBlanks" dxfId="26" priority="31">
+    <cfRule type="containsBlanks" dxfId="58" priority="31">
       <formula>LEN(TRIM(D44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="25" priority="29">
+    <cfRule type="containsBlanks" dxfId="57" priority="29">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="24" priority="28">
+    <cfRule type="containsBlanks" dxfId="56" priority="28">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="23" priority="27">
+    <cfRule type="containsBlanks" dxfId="55" priority="27">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="22" priority="26">
+    <cfRule type="containsBlanks" dxfId="54" priority="26">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="21" priority="21">
+    <cfRule type="containsBlanks" dxfId="53" priority="21">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="20" priority="22">
+    <cfRule type="containsBlanks" dxfId="52" priority="22">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="19" priority="20">
+    <cfRule type="containsBlanks" dxfId="51" priority="20">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="18" priority="19">
+    <cfRule type="containsBlanks" dxfId="50" priority="19">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="17" priority="18">
+    <cfRule type="containsBlanks" dxfId="49" priority="18">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="16" priority="17">
+    <cfRule type="containsBlanks" dxfId="48" priority="17">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="15" priority="16">
+    <cfRule type="containsBlanks" dxfId="47" priority="16">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsBlanks" dxfId="14" priority="15">
+    <cfRule type="containsBlanks" dxfId="46" priority="15">
       <formula>LEN(TRIM(C34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsBlanks" dxfId="13" priority="14">
+    <cfRule type="containsBlanks" dxfId="45" priority="14">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
+    <cfRule type="containsBlanks" dxfId="44" priority="13">
       <formula>LEN(TRIM(C45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsBlanks" dxfId="11" priority="12">
+    <cfRule type="containsBlanks" dxfId="43" priority="12">
       <formula>LEN(TRIM(C46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="containsBlanks" dxfId="10" priority="11">
+    <cfRule type="containsBlanks" dxfId="42" priority="11">
       <formula>LEN(TRIM(C47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsBlanks" dxfId="9" priority="10">
+    <cfRule type="containsBlanks" dxfId="41" priority="10">
       <formula>LEN(TRIM(C48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsBlanks" dxfId="8" priority="9">
+    <cfRule type="containsBlanks" dxfId="40" priority="9">
       <formula>LEN(TRIM(C49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+    <cfRule type="containsBlanks" dxfId="39" priority="8">
       <formula>LEN(TRIM(C50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="38" priority="7">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="37" priority="6">
       <formula>LEN(TRIM(C60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="36" priority="5">
       <formula>LEN(TRIM(C61))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="35" priority="4">
       <formula>LEN(TRIM(C62))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="34" priority="3">
       <formula>LEN(TRIM(C63))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="33" priority="2">
       <formula>LEN(TRIM(C64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(C65))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3047,62 +3864,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -3118,12 +3935,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>10480</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -3139,10 +3956,10 @@
         <f t="shared" si="0"/>
         <v>13362</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3158,16 +3975,16 @@
         <f t="shared" si="0"/>
         <v>17334</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="13">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="13">
         <v>9165</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="13">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -3186,10 +4003,10 @@
         <f t="shared" si="0"/>
         <v>14124</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -3205,12 +4022,12 @@
         <f t="shared" si="0"/>
         <v>24849</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -3226,10 +4043,10 @@
         <f t="shared" si="0"/>
         <v>16064</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -3245,13 +4062,13 @@
         <f t="shared" si="0"/>
         <v>23328</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>C19</f>
         <v>760</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="18">
         <f>D19</f>
         <v>163013</v>
       </c>
@@ -3270,10 +4087,10 @@
         <f t="shared" si="0"/>
         <v>28512</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -3289,42 +4106,42 @@
         <f t="shared" si="0"/>
         <v>14960</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="10" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="16">
         <f>H15/G15</f>
         <v>285.74158690176324</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="13">
         <f>G7+G11</f>
         <v>9925</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="13">
         <f>H11+H7</f>
         <v>2835985.25</v>
       </c>
@@ -3342,10 +4159,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -3360,12 +4177,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -3377,10 +4194,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -3395,58 +4212,522 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>163013</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
         <v>4100</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="18">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="16">
         <f>H23/G23</f>
         <v>285.67096256684493</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="13">
         <f>G15+G19</f>
         <v>14025</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="13">
         <f>H19+H15</f>
         <v>4006535.25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>10480</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5">
+        <v>102</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>13362</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>17334</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="13">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="13">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="13">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="5">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>14124</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5">
+        <v>99</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>24849</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="5">
+        <v>64</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>16064</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="5">
+        <v>81</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>23328</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
+        <f>C19</f>
+        <v>760</v>
+      </c>
+      <c r="H11" s="18">
+        <f>D19</f>
+        <v>149351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <v>99</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>14850</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="5">
+        <v>88</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>14960</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="16">
+        <f>H15/G15</f>
+        <v>284.36506297229221</v>
+      </c>
+      <c r="G15" s="13">
+        <f>G7+G11</f>
+        <v>9925</v>
+      </c>
+      <c r="H15" s="13">
+        <f>H11+H7</f>
+        <v>2822323.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>760</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>149351</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
+        <v>4100</v>
+      </c>
+      <c r="H19" s="18">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="16">
+        <f>H23/G23</f>
+        <v>284.69684491978609</v>
+      </c>
+      <c r="G23" s="13">
+        <f>G15+G19</f>
+        <v>14025</v>
+      </c>
+      <c r="H23" s="13">
+        <f>H19+H15</f>
+        <v>3992873.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3490,12 +4771,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C39D154-1F26-4105-A8FA-B8B6FE50AD62}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3526,7 +4807,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3572,7 +4853,7 @@
         <v>778</v>
       </c>
       <c r="C8">
-        <f>'Weigjt&amp;Balance'!G$19-B8</f>
+        <f>'Weight&amp;Balance'!G$19-B8</f>
         <v>3322</v>
       </c>
       <c r="D8">
@@ -3595,7 +4876,7 @@
         <v>925067.73999999987</v>
       </c>
       <c r="I8">
-        <f>('Weigjt&amp;Balance'!H$15+H8)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C8)</f>
+        <f>('Weight&amp;Balance'!H$15+H8)/('Weight&amp;Balance'!G$15+'Changing CG'!C8)</f>
         <v>283.91733902015551</v>
       </c>
       <c r="J8">
@@ -3613,7 +4894,7 @@
         <v>797</v>
       </c>
       <c r="C9">
-        <f>'Weigjt&amp;Balance'!G$19-B9</f>
+        <f>'Weight&amp;Balance'!G$19-B9</f>
         <v>3303</v>
       </c>
       <c r="D9">
@@ -3636,7 +4917,7 @@
         <v>914196.50999999989</v>
       </c>
       <c r="I9">
-        <f>('Weigjt&amp;Balance'!H$15+H9)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C9)</f>
+        <f>('Weight&amp;Balance'!H$15+H9)/('Weight&amp;Balance'!G$15+'Changing CG'!C9)</f>
         <v>283.50330813426064</v>
       </c>
       <c r="J9">
@@ -3654,7 +4935,7 @@
         <v>826</v>
       </c>
       <c r="C10">
-        <f>'Weigjt&amp;Balance'!G$19-B10</f>
+        <f>'Weight&amp;Balance'!G$19-B10</f>
         <v>3274</v>
       </c>
       <c r="D10">
@@ -3677,7 +4958,7 @@
         <v>905050.24</v>
       </c>
       <c r="I10">
-        <f>('Weigjt&amp;Balance'!H$15+H10)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C10)</f>
+        <f>('Weight&amp;Balance'!H$15+H10)/('Weight&amp;Balance'!G$15+'Changing CG'!C10)</f>
         <v>283.4332517614971</v>
       </c>
       <c r="J10">
@@ -3695,7 +4976,7 @@
         <v>839</v>
       </c>
       <c r="C11">
-        <f>'Weigjt&amp;Balance'!G$19-B11</f>
+        <f>'Weight&amp;Balance'!G$19-B11</f>
         <v>3261</v>
       </c>
       <c r="D11">
@@ -3718,7 +4999,7 @@
         <v>901335.36</v>
       </c>
       <c r="I11">
-        <f>('Weigjt&amp;Balance'!H$15+H11)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C11)</f>
+        <f>('Weight&amp;Balance'!H$15+H11)/('Weight&amp;Balance'!G$15+'Changing CG'!C11)</f>
         <v>283.43095783406642</v>
       </c>
       <c r="J11">
@@ -3736,7 +5017,7 @@
         <v>857</v>
       </c>
       <c r="C12">
-        <f>'Weigjt&amp;Balance'!G$19-B12</f>
+        <f>'Weight&amp;Balance'!G$19-B12</f>
         <v>3243</v>
       </c>
       <c r="D12">
@@ -3759,7 +5040,7 @@
         <v>896191.68</v>
       </c>
       <c r="I12">
-        <f>('Weigjt&amp;Balance'!H$15+H12)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C12)</f>
+        <f>('Weight&amp;Balance'!H$15+H12)/('Weight&amp;Balance'!G$15+'Changing CG'!C12)</f>
         <v>283.42777414945323</v>
       </c>
       <c r="J12">
@@ -3777,7 +5058,7 @@
         <v>872</v>
       </c>
       <c r="C13">
-        <f>'Weigjt&amp;Balance'!G$19-B13</f>
+        <f>'Weight&amp;Balance'!G$19-B13</f>
         <v>3228</v>
       </c>
       <c r="D13">
@@ -3800,7 +5081,7 @@
         <v>891905.28</v>
       </c>
       <c r="I13">
-        <f>('Weigjt&amp;Balance'!H$15+H13)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C13)</f>
+        <f>('Weight&amp;Balance'!H$15+H13)/('Weight&amp;Balance'!G$15+'Changing CG'!C13)</f>
         <v>283.42511442256523</v>
       </c>
       <c r="J13">
@@ -3818,7 +5099,7 @@
         <v>889</v>
       </c>
       <c r="C14">
-        <f>'Weigjt&amp;Balance'!G$19-B14</f>
+        <f>'Weight&amp;Balance'!G$19-B14</f>
         <v>3211</v>
       </c>
       <c r="D14">
@@ -3841,7 +5122,7 @@
         <v>887047.3600000001</v>
       </c>
       <c r="I14">
-        <f>('Weigjt&amp;Balance'!H$15+H14)/('Weigjt&amp;Balance'!G$15+'Changing CG'!C14)</f>
+        <f>('Weight&amp;Balance'!H$15+H14)/('Weight&amp;Balance'!G$15+'Changing CG'!C14)</f>
         <v>283.4220927222899</v>
       </c>
       <c r="J14">
@@ -3895,7 +5176,7 @@
         <v>912</v>
       </c>
       <c r="C18">
-        <f>'Shifted CG Weight and Balance'!G$19-'Changing CG'!B18</f>
+        <f>'Sartaj Moved Weight and Balance'!G$19-'Changing CG'!B18</f>
         <v>3188</v>
       </c>
       <c r="D18">
@@ -3917,7 +5198,7 @@
         <v>909050.87999999989</v>
       </c>
       <c r="I18">
-        <f>('Shifted CG Weight and Balance'!H$15+'Changing CG'!H18)/('Shifted CG Weight and Balance'!G$15+'Changing CG'!C18)</f>
+        <f>('Sartaj Moved Weight and Balance'!H$15+'Changing CG'!H18)/('Sartaj Moved Weight and Balance'!G$15+'Changing CG'!C18)</f>
         <v>284.55533668878212</v>
       </c>
       <c r="J18">
@@ -3934,7 +5215,7 @@
         <v>944</v>
       </c>
       <c r="C19">
-        <f>'Shifted CG Weight and Balance'!G$19-'Changing CG'!B19</f>
+        <f>'Sartaj Moved Weight and Balance'!G$19-'Changing CG'!B19</f>
         <v>3156</v>
       </c>
       <c r="D19">
@@ -3956,7 +5237,7 @@
         <v>899906.55999999994</v>
       </c>
       <c r="I19">
-        <f>('Shifted CG Weight and Balance'!H$15+'Changing CG'!H19)/('Shifted CG Weight and Balance'!G$15+'Changing CG'!C19)</f>
+        <f>('Sartaj Moved Weight and Balance'!H$15+'Changing CG'!H19)/('Sartaj Moved Weight and Balance'!G$15+'Changing CG'!C19)</f>
         <v>284.55238972555617</v>
       </c>
       <c r="J19">
@@ -3969,12 +5250,1438 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC9CFEA-7568-4A40-8F5A-02AE53ACD28F}">
+  <dimension ref="A1:M84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="13" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43896</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="H10" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="H11" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="H12" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="H13" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="H14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="H15" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="H16" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5010</v>
+      </c>
+      <c r="E28" s="2">
+        <v>249</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2">
+        <v>798</v>
+      </c>
+      <c r="H28" s="2">
+        <v>813</v>
+      </c>
+      <c r="I28" s="2">
+        <v>360</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5020</v>
+      </c>
+      <c r="E29" s="2">
+        <v>221</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="2">
+        <v>673</v>
+      </c>
+      <c r="H29" s="2">
+        <v>682</v>
+      </c>
+      <c r="I29" s="2">
+        <v>412</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5020</v>
+      </c>
+      <c r="E30" s="2">
+        <v>192</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="2">
+        <v>561</v>
+      </c>
+      <c r="H30" s="2">
+        <v>579</v>
+      </c>
+      <c r="I30" s="2">
+        <v>447</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5030</v>
+      </c>
+      <c r="E31" s="2">
+        <v>163</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="2">
+        <v>463</v>
+      </c>
+      <c r="H31" s="2">
+        <v>484</v>
+      </c>
+      <c r="I31" s="2">
+        <v>478</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5020</v>
+      </c>
+      <c r="E32" s="2">
+        <v>130</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="2">
+        <v>443</v>
+      </c>
+      <c r="H32" s="2">
+        <v>467</v>
+      </c>
+      <c r="I32" s="2">
+        <v>532</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5110</v>
+      </c>
+      <c r="E33" s="2">
+        <v>118</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="2">
+        <v>474</v>
+      </c>
+      <c r="H33" s="2">
+        <v>499</v>
+      </c>
+      <c r="I33" s="2">
+        <v>570</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" t="s">
+        <v>59</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6060</v>
+      </c>
+      <c r="E59" s="2">
+        <v>161</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>462</v>
+      </c>
+      <c r="K59" s="2">
+        <v>486</v>
+      </c>
+      <c r="L59" s="2">
+        <v>664</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6350</v>
+      </c>
+      <c r="E60" s="2">
+        <v>150</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I60" s="2">
+        <v>-23</v>
+      </c>
+      <c r="J60" s="2">
+        <v>458</v>
+      </c>
+      <c r="K60" s="2">
+        <v>482</v>
+      </c>
+      <c r="L60" s="2">
+        <v>694</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6550</v>
+      </c>
+      <c r="E61" s="2">
+        <v>140</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I61" s="2">
+        <v>-29</v>
+      </c>
+      <c r="J61" s="2">
+        <v>454</v>
+      </c>
+      <c r="K61" s="2">
+        <v>477</v>
+      </c>
+      <c r="L61" s="2">
+        <v>730</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2">
+        <v>6880</v>
+      </c>
+      <c r="E62" s="2">
+        <v>130</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I62" s="2">
+        <v>-46</v>
+      </c>
+      <c r="J62" s="2">
+        <v>449</v>
+      </c>
+      <c r="K62" s="2">
+        <v>473</v>
+      </c>
+      <c r="L62" s="2">
+        <v>755</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6160</v>
+      </c>
+      <c r="E63" s="2">
+        <v>173</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I63" s="2">
+        <v>26</v>
+      </c>
+      <c r="J63" s="2">
+        <v>465</v>
+      </c>
+      <c r="K63" s="2">
+        <v>489</v>
+      </c>
+      <c r="L63" s="2">
+        <v>798</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5810</v>
+      </c>
+      <c r="E64" s="2">
+        <v>179</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I64" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" s="2">
+        <v>472</v>
+      </c>
+      <c r="K64" s="2">
+        <v>496</v>
+      </c>
+      <c r="L64" s="2">
+        <v>825</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="2">
+        <v>5310</v>
+      </c>
+      <c r="E65" s="2">
+        <v>192</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I65" s="2">
+        <v>83</v>
+      </c>
+      <c r="J65" s="2">
+        <v>482</v>
+      </c>
+      <c r="K65" s="2">
+        <v>505</v>
+      </c>
+      <c r="L65" s="2">
+        <v>846</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" t="s">
+        <v>59</v>
+      </c>
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="2">
+        <v>5730</v>
+      </c>
+      <c r="E75" s="2">
+        <v>161</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>471</v>
+      </c>
+      <c r="K75" s="2">
+        <v>493</v>
+      </c>
+      <c r="L75" s="2">
+        <v>881</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5790</v>
+      </c>
+      <c r="E76" s="2">
+        <v>161</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="G76" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I76" s="2">
+        <v>-30</v>
+      </c>
+      <c r="J76" s="2">
+        <v>468</v>
+      </c>
+      <c r="K76" s="2">
+        <v>490</v>
+      </c>
+      <c r="L76" s="2">
+        <v>910</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="4">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" s="4">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="4">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" s="4">
+        <v>4.6527777777777779E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <conditionalFormatting sqref="H3:H4 D8:D16">
+    <cfRule type="containsBlanks" dxfId="31" priority="36">
+      <formula>LEN(TRIM(D3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsBlanks" dxfId="30" priority="33">
+      <formula>LEN(TRIM(B34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsBlanks" dxfId="29" priority="35">
+      <formula>LEN(TRIM(D18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C33">
+    <cfRule type="containsBlanks" dxfId="28" priority="34">
+      <formula>LEN(TRIM(B28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:J50">
+    <cfRule type="containsBlanks" dxfId="26" priority="32">
+      <formula>LEN(TRIM(D44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="containsBlanks" dxfId="25" priority="30">
+      <formula>LEN(TRIM(C70))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsBlanks" dxfId="24" priority="29">
+      <formula>LEN(TRIM(C71))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsBlanks" dxfId="23" priority="28">
+      <formula>LEN(TRIM(H71))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:C76">
+    <cfRule type="containsBlanks" dxfId="22" priority="27">
+      <formula>LEN(TRIM(B75))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="containsBlanks" dxfId="21" priority="25">
+      <formula>LEN(TRIM(D3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsBlanks" dxfId="20" priority="26">
+      <formula>LEN(TRIM(E39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:D84">
+    <cfRule type="containsBlanks" dxfId="19" priority="24">
+      <formula>LEN(TRIM(D83))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83:G84">
+    <cfRule type="containsBlanks" dxfId="18" priority="23">
+      <formula>LEN(TRIM(G83))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83:J84">
+    <cfRule type="containsBlanks" dxfId="17" priority="22">
+      <formula>LEN(TRIM(J83))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B65">
+    <cfRule type="containsBlanks" dxfId="16" priority="21">
+      <formula>LEN(TRIM(B59))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B50">
+    <cfRule type="containsBlanks" dxfId="15" priority="20">
+      <formula>LEN(TRIM(B44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsBlanks" dxfId="14" priority="19">
+      <formula>LEN(TRIM(C34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="containsBlanks" dxfId="13" priority="18">
+      <formula>LEN(TRIM(C44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="containsBlanks" dxfId="12" priority="17">
+      <formula>LEN(TRIM(C45))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="containsBlanks" dxfId="11" priority="16">
+      <formula>LEN(TRIM(C46))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="containsBlanks" dxfId="10" priority="15">
+      <formula>LEN(TRIM(C47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsBlanks" dxfId="9" priority="14">
+      <formula>LEN(TRIM(C48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="containsBlanks" dxfId="8" priority="13">
+      <formula>LEN(TRIM(C49))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="containsBlanks" dxfId="7" priority="12">
+      <formula>LEN(TRIM(C50))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="containsBlanks" dxfId="6" priority="11">
+      <formula>LEN(TRIM(C59))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
+      <formula>LEN(TRIM(C60))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="containsBlanks" dxfId="4" priority="9">
+      <formula>LEN(TRIM(C61))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="containsBlanks" dxfId="3" priority="8">
+      <formula>LEN(TRIM(C62))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="containsBlanks" dxfId="2" priority="7">
+      <formula>LEN(TRIM(C63))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="containsBlanks" dxfId="1" priority="6">
+      <formula>LEN(TRIM(C64))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(C65))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:J34">
+    <cfRule type="expression" priority="3">
+      <formula>LEN(TRIM(D34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:J33">
+    <cfRule type="expression" priority="4">
+      <formula>LEN(TRIM(D28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:M65">
+    <cfRule type="expression" priority="2">
+      <formula>LEN(TRIM(D59))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:M76">
+    <cfRule type="expression" priority="1">
+      <formula>LEN(TRIM(D75))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E09AA9D-75B0-4846-B417-08818D0C169A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3990,62 +6697,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -4054,19 +6761,19 @@
       <c r="B5" s="5">
         <v>131</v>
       </c>
-      <c r="C5" s="5">
-        <v>80</v>
+      <c r="C5" s="2">
+        <v>95</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>10480</v>
-      </c>
-      <c r="E5" s="12" t="s">
+        <v>12445</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -4075,17 +6782,17 @@
       <c r="B6" s="5">
         <v>131</v>
       </c>
-      <c r="C6" s="5">
-        <v>102</v>
+      <c r="C6" s="2">
+        <v>92</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>13362</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+        <v>12052</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -4094,23 +6801,23 @@
       <c r="B7" s="5">
         <v>214</v>
       </c>
-      <c r="C7" s="5">
-        <v>81</v>
+      <c r="C7" s="2">
+        <v>66</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>17334</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>14124</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="13">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="13">
         <v>9165</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="13">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -4122,17 +6829,17 @@
       <c r="B8" s="5">
         <v>214</v>
       </c>
-      <c r="C8" s="5">
-        <v>66</v>
+      <c r="C8" s="2">
+        <v>61</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>14124</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+        <v>13054</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -4141,19 +6848,19 @@
       <c r="B9" s="5">
         <v>251</v>
       </c>
-      <c r="C9" s="5">
-        <v>99</v>
+      <c r="C9" s="2">
+        <v>75</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>24849</v>
-      </c>
-      <c r="E9" s="12" t="s">
+        <v>18825</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -4162,17 +6869,17 @@
       <c r="B10" s="5">
         <v>251</v>
       </c>
-      <c r="C10" s="5">
-        <v>64</v>
+      <c r="C10" s="2">
+        <v>78</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>16064</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+        <v>19578</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -4181,22 +6888,22 @@
       <c r="B11" s="5">
         <v>288</v>
       </c>
-      <c r="C11" s="5">
-        <v>81</v>
+      <c r="C11" s="2">
+        <v>86</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>23328</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14">
+        <v>24768</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>C19</f>
-        <v>760</v>
-      </c>
-      <c r="H11" s="14">
+        <v>695</v>
+      </c>
+      <c r="H11" s="18">
         <f>D19</f>
-        <v>149351</v>
+        <v>147010</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4204,19 +6911,19 @@
         <v>82</v>
       </c>
       <c r="B12" s="5">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5">
-        <v>99</v>
+        <v>288</v>
+      </c>
+      <c r="C12" s="2">
+        <v>68</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>14850</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+        <v>19584</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -4225,51 +6932,51 @@
       <c r="B13" s="5">
         <v>170</v>
       </c>
-      <c r="C13" s="5">
-        <v>88</v>
+      <c r="C13" s="2">
+        <v>74</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>14960</v>
-      </c>
-      <c r="E13" s="15" t="s">
+        <v>12580</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="10" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="16">
         <f>H15/G15</f>
-        <v>284.36506297229221</v>
-      </c>
-      <c r="G15" s="10">
+        <v>286.0022565922921</v>
+      </c>
+      <c r="G15" s="13">
         <f>G7+G11</f>
-        <v>9925</v>
-      </c>
-      <c r="H15" s="10">
+        <v>9860</v>
+      </c>
+      <c r="H15" s="13">
         <f>H11+H7</f>
-        <v>2822323.25</v>
+        <v>2819982.25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4285,10 +6992,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -4303,12 +7010,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -4320,10 +7027,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -4332,64 +7039,65 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9">
         <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>760</v>
+        <v>695</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>149351</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14">
-        <v>4100</v>
-      </c>
-      <c r="H19" s="14">
+        <v>147010</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
+        <f>'Reference Data'!D18</f>
+        <v>4050</v>
+      </c>
+      <c r="H19" s="18">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="16">
         <f>H23/G23</f>
-        <v>284.69684491978609</v>
-      </c>
-      <c r="G23" s="10">
+        <v>286.88226096333574</v>
+      </c>
+      <c r="G23" s="13">
         <f>G15+G19</f>
-        <v>14025</v>
-      </c>
-      <c r="H23" s="10">
+        <v>13910</v>
+      </c>
+      <c r="H23" s="13">
         <f>H19+H15</f>
-        <v>3992873.25</v>
+        <v>3990532.25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4431,4 +7139,945 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90FF99-B0AB-4C2B-B79F-87D6BC45997A}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2">
+        <v>95</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>12445</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2">
+        <v>92</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>12052</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="2">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>14124</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="13">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="13">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="13">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="2">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>13054</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="2">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>18825</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="2">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>19578</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="2">
+        <v>86</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>24768</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
+        <f>C19</f>
+        <v>695</v>
+      </c>
+      <c r="H11" s="18">
+        <f>D19</f>
+        <v>137626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2">
+        <v>68</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2">
+        <v>74</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>12580</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="16">
+        <f>H15/G15</f>
+        <v>285.05053245436108</v>
+      </c>
+      <c r="G15" s="13">
+        <f>G7+G11</f>
+        <v>9860</v>
+      </c>
+      <c r="H15" s="13">
+        <f>H11+H7</f>
+        <v>2810598.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>695</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>137626</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
+        <f>'Reference Data'!D18</f>
+        <v>4050</v>
+      </c>
+      <c r="H19" s="18">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="16">
+        <f>H23/G23</f>
+        <v>286.20763838964774</v>
+      </c>
+      <c r="G23" s="13">
+        <f>G15+G19</f>
+        <v>13910</v>
+      </c>
+      <c r="H23" s="13">
+        <f>H19+H15</f>
+        <v>3981148.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173147DD-84D5-4EF1-B05D-B79BDAC94B57}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1">
+        <v>251.56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>80.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>'Reference Data'!L59</f>
+        <v>664</v>
+      </c>
+      <c r="C8">
+        <f>'Reference Weight&amp;Balance'!G$19-B8</f>
+        <v>3386</v>
+      </c>
+      <c r="D8">
+        <v>3400</v>
+      </c>
+      <c r="E8">
+        <f>D8-100</f>
+        <v>3300</v>
+      </c>
+      <c r="F8">
+        <f>9696.97*100</f>
+        <v>969696.99999999988</v>
+      </c>
+      <c r="G8">
+        <f>F10</f>
+        <v>969696.99999999988</v>
+      </c>
+      <c r="H8">
+        <f>((F8-G8)/(D8-E8))*(C8-E8)+G8</f>
+        <v>969696.99999999988</v>
+      </c>
+      <c r="I8">
+        <f>('Reference Weight&amp;Balance'!H$15+H8)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C8)</f>
+        <v>286.09989808244001</v>
+      </c>
+      <c r="J8">
+        <f>(I8-B$1)/B$2</f>
+        <v>0.42652380936576934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f>'Reference Data'!L60</f>
+        <v>694</v>
+      </c>
+      <c r="C9">
+        <f>'Reference Weight&amp;Balance'!G$19-B9</f>
+        <v>3356</v>
+      </c>
+      <c r="D9">
+        <v>3400</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E14" si="0">D9-100</f>
+        <v>3300</v>
+      </c>
+      <c r="F9">
+        <f>9696.97*100</f>
+        <v>969696.99999999988</v>
+      </c>
+      <c r="G9">
+        <f>F11</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H19" si="1">((F9-G9)/(D9-E9))*(C9-E9)+G9</f>
+        <v>944521.5199999999</v>
+      </c>
+      <c r="I9">
+        <f>('Reference Weight&amp;Balance'!H$15+H9)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C9)</f>
+        <v>284.84441358958838</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J14" si="2">(I9-B$1)/B$2</f>
+        <v>0.4110201727536229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" ref="A10:A14" si="3">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f>'Reference Data'!L61</f>
+        <v>730</v>
+      </c>
+      <c r="C10">
+        <f>'Reference Weight&amp;Balance'!G$19-B10</f>
+        <v>3320</v>
+      </c>
+      <c r="D10">
+        <v>3400</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+      <c r="F10">
+        <f>9696.97*100</f>
+        <v>969696.99999999988</v>
+      </c>
+      <c r="G10">
+        <f>8839.04*100</f>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>901062.60000000009</v>
+      </c>
+      <c r="I10">
+        <f>('Reference Weight&amp;Balance'!H$15+H10)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C10)</f>
+        <v>282.32510242792108</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.37990988426674582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f>'Reference Data'!L62</f>
+        <v>755</v>
+      </c>
+      <c r="C11">
+        <f>'Reference Weight&amp;Balance'!G$19-B11</f>
+        <v>3295</v>
+      </c>
+      <c r="D11">
+        <v>3300</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F14" si="4">9124.8*100</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="5">8839.04*100</f>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>911051.2</v>
+      </c>
+      <c r="I11">
+        <f>('Reference Weight&amp;Balance'!H$15+H11)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C11)</f>
+        <v>283.62093880653742</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.39591181534375675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f>'Reference Data'!L63</f>
+        <v>798</v>
+      </c>
+      <c r="C12">
+        <f>'Reference Weight&amp;Balance'!G$19-B12</f>
+        <v>3252</v>
+      </c>
+      <c r="D12">
+        <v>3300</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>898763.52</v>
+      </c>
+      <c r="I12">
+        <f>('Reference Weight&amp;Balance'!H$15+H12)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C12)</f>
+        <v>283.61392388651615</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.39582519000390398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f>'Reference Data'!L64</f>
+        <v>825</v>
+      </c>
+      <c r="C13">
+        <f>'Reference Weight&amp;Balance'!G$19-B13</f>
+        <v>3225</v>
+      </c>
+      <c r="D13">
+        <v>3300</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>891048</v>
+      </c>
+      <c r="I13">
+        <f>('Reference Weight&amp;Balance'!H$15+H13)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C13)</f>
+        <v>283.60949560565535</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.39577050636768768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>'Reference Data'!L65</f>
+        <v>846</v>
+      </c>
+      <c r="C14">
+        <f>'Reference Weight&amp;Balance'!G$19-B14</f>
+        <v>3204</v>
+      </c>
+      <c r="D14">
+        <v>3300</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>885047.04000000015</v>
+      </c>
+      <c r="I14">
+        <f>('Reference Weight&amp;Balance'!H$15+H14)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C14)</f>
+        <v>283.60603873239438</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.39572781837977744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>'Reference Data'!L75</f>
+        <v>881</v>
+      </c>
+      <c r="C18">
+        <f>'Reference Moved Weight&amp;Balance'!G$19-'Changing CG Reference'!B18</f>
+        <v>3169</v>
+      </c>
+      <c r="D18">
+        <v>3200</v>
+      </c>
+      <c r="E18">
+        <v>3100</v>
+      </c>
+      <c r="F18">
+        <f>9124.8*100</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G18">
+        <f>8839.04*100</f>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H18">
+        <f>((F18-G18)/(D18-E18))*(C18-E18)+G18</f>
+        <v>903621.44</v>
+      </c>
+      <c r="I18">
+        <f>('Reference Moved Weight&amp;Balance'!H$15+H18)/('Reference Moved Weight&amp;Balance'!G$15+'Changing CG Reference'!C18)</f>
+        <v>285.07327423440017</v>
+      </c>
+      <c r="J18">
+        <f>(I18-B$1)/B$2</f>
+        <v>0.41384631062484772</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f>'Reference Data'!L76</f>
+        <v>910</v>
+      </c>
+      <c r="C19">
+        <f>'Reference Moved Weight&amp;Balance'!G$19-'Changing CG Reference'!B19</f>
+        <v>3140</v>
+      </c>
+      <c r="D19">
+        <v>3200</v>
+      </c>
+      <c r="E19">
+        <v>3100</v>
+      </c>
+      <c r="F19">
+        <f>9124.8*100</f>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="G19">
+        <f>8839.04*100</f>
+        <v>883904.00000000012</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>895334.40000000002</v>
+      </c>
+      <c r="I19">
+        <f>('Reference Moved Weight&amp;Balance'!H$15+H19)/('Reference Moved Weight&amp;Balance'!G$15+'Changing CG Reference'!C19)</f>
+        <v>285.07174230769232</v>
+      </c>
+      <c r="J19">
+        <f>(I19-B$1)/B$2</f>
+        <v>0.41382739327849238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E7D04B-8432-464F-9C6B-69E72C1D6855}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B1615-4DA9-449D-98E0-9FFE4A2598FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
@@ -594,23 +594,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,32 +610,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill>
@@ -2436,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
@@ -3678,162 +3657,162 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16">
-    <cfRule type="containsBlanks" dxfId="63" priority="39">
+    <cfRule type="containsBlanks" dxfId="62" priority="39">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34 D34:J34">
-    <cfRule type="containsBlanks" dxfId="62" priority="32">
+    <cfRule type="containsBlanks" dxfId="61" priority="32">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="61" priority="34">
+    <cfRule type="containsBlanks" dxfId="60" priority="34">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="60" priority="33">
+    <cfRule type="containsBlanks" dxfId="59" priority="33">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:M65">
-    <cfRule type="containsBlanks" dxfId="59" priority="30">
+    <cfRule type="containsBlanks" dxfId="58" priority="30">
       <formula>LEN(TRIM(D59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:J50">
-    <cfRule type="containsBlanks" dxfId="58" priority="31">
+    <cfRule type="containsBlanks" dxfId="57" priority="31">
       <formula>LEN(TRIM(D44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="57" priority="29">
+    <cfRule type="containsBlanks" dxfId="56" priority="29">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="56" priority="28">
+    <cfRule type="containsBlanks" dxfId="55" priority="28">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="55" priority="27">
+    <cfRule type="containsBlanks" dxfId="54" priority="27">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="54" priority="26">
+    <cfRule type="containsBlanks" dxfId="53" priority="26">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="53" priority="21">
+    <cfRule type="containsBlanks" dxfId="52" priority="21">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="52" priority="22">
+    <cfRule type="containsBlanks" dxfId="51" priority="22">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="51" priority="20">
+    <cfRule type="containsBlanks" dxfId="50" priority="20">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="50" priority="19">
+    <cfRule type="containsBlanks" dxfId="49" priority="19">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="49" priority="18">
+    <cfRule type="containsBlanks" dxfId="48" priority="18">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="48" priority="17">
+    <cfRule type="containsBlanks" dxfId="47" priority="17">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="47" priority="16">
+    <cfRule type="containsBlanks" dxfId="46" priority="16">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsBlanks" dxfId="46" priority="15">
+    <cfRule type="containsBlanks" dxfId="45" priority="15">
       <formula>LEN(TRIM(C34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="containsBlanks" dxfId="45" priority="14">
+    <cfRule type="containsBlanks" dxfId="44" priority="14">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsBlanks" dxfId="44" priority="13">
+    <cfRule type="containsBlanks" dxfId="43" priority="13">
       <formula>LEN(TRIM(C45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsBlanks" dxfId="43" priority="12">
+    <cfRule type="containsBlanks" dxfId="42" priority="12">
       <formula>LEN(TRIM(C46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="containsBlanks" dxfId="42" priority="11">
+    <cfRule type="containsBlanks" dxfId="41" priority="11">
       <formula>LEN(TRIM(C47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsBlanks" dxfId="41" priority="10">
+    <cfRule type="containsBlanks" dxfId="40" priority="10">
       <formula>LEN(TRIM(C48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsBlanks" dxfId="40" priority="9">
+    <cfRule type="containsBlanks" dxfId="39" priority="9">
       <formula>LEN(TRIM(C49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="containsBlanks" dxfId="39" priority="8">
+    <cfRule type="containsBlanks" dxfId="38" priority="8">
       <formula>LEN(TRIM(C50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="containsBlanks" dxfId="38" priority="7">
+    <cfRule type="containsBlanks" dxfId="37" priority="7">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="containsBlanks" dxfId="37" priority="6">
+    <cfRule type="containsBlanks" dxfId="36" priority="6">
       <formula>LEN(TRIM(C60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="containsBlanks" dxfId="36" priority="5">
+    <cfRule type="containsBlanks" dxfId="35" priority="5">
       <formula>LEN(TRIM(C61))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="containsBlanks" dxfId="35" priority="4">
+    <cfRule type="containsBlanks" dxfId="34" priority="4">
       <formula>LEN(TRIM(C62))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="containsBlanks" dxfId="34" priority="3">
+    <cfRule type="containsBlanks" dxfId="33" priority="3">
       <formula>LEN(TRIM(C63))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsBlanks" dxfId="33" priority="2">
+    <cfRule type="containsBlanks" dxfId="32" priority="2">
       <formula>LEN(TRIM(C64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="containsBlanks" dxfId="32" priority="1">
+    <cfRule type="containsBlanks" dxfId="31" priority="1">
       <formula>LEN(TRIM(C65))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3848,7 +3827,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+      <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3864,62 +3843,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -3929,18 +3908,19 @@
         <v>131</v>
       </c>
       <c r="C5" s="5">
-        <v>80</v>
+        <f>80*2.205</f>
+        <v>176.4</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>10480</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>23108.400000000001</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -3950,16 +3930,17 @@
         <v>131</v>
       </c>
       <c r="C6" s="5">
-        <v>102</v>
+        <f>2.205*102</f>
+        <v>224.91</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>13362</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>29463.21</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3969,22 +3950,23 @@
         <v>214</v>
       </c>
       <c r="C7" s="5">
-        <v>81</v>
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>17334</v>
-      </c>
-      <c r="E7" s="13" t="s">
+        <v>38221.47</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>9165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -3997,16 +3979,17 @@
         <v>214</v>
       </c>
       <c r="C8" s="5">
-        <v>66</v>
+        <f>2.205*66</f>
+        <v>145.53</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>14124</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+        <v>31143.420000000002</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -4016,18 +3999,19 @@
         <v>251</v>
       </c>
       <c r="C9" s="5">
-        <v>99</v>
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>24849</v>
-      </c>
-      <c r="E9" s="11" t="s">
+        <v>54792.045000000006</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -4037,16 +4021,17 @@
         <v>251</v>
       </c>
       <c r="C10" s="5">
-        <v>64</v>
+        <f>2.205*64</f>
+        <v>141.12</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>16064</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+        <v>35421.120000000003</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -4056,21 +4041,22 @@
         <v>288</v>
       </c>
       <c r="C11" s="5">
-        <v>81</v>
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>23328</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+        <v>51438.240000000005</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
         <f>C19</f>
-        <v>760</v>
-      </c>
-      <c r="H11" s="18">
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="H11" s="15">
         <f>D19</f>
-        <v>163013</v>
+        <v>359443.66500000004</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4081,16 +4067,17 @@
         <v>288</v>
       </c>
       <c r="C12" s="5">
-        <v>99</v>
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>28512</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+        <v>62868.960000000006</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -4100,50 +4087,51 @@
         <v>170</v>
       </c>
       <c r="C13" s="5">
-        <v>88</v>
+        <f>2.205*88</f>
+        <v>194.04000000000002</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>14960</v>
-      </c>
-      <c r="E13" s="19" t="s">
+        <v>32986.800000000003</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f>H15/G15</f>
-        <v>285.74158690176324</v>
-      </c>
-      <c r="G15" s="13">
+        <v>279.72252186185523</v>
+      </c>
+      <c r="G15" s="11">
         <f>G7+G11</f>
-        <v>9925</v>
-      </c>
-      <c r="H15" s="13">
+        <v>10840.8</v>
+      </c>
+      <c r="H15" s="11">
         <f>H11+H7</f>
-        <v>2835985.25</v>
+        <v>3032415.915</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4159,10 +4147,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -4177,12 +4165,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -4194,10 +4182,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -4206,64 +4194,537 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9">
         <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>760</v>
+        <v>1675.8000000000002</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>163013</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+        <v>359443.66500000004</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
         <v>4100</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="12">
         <f>H23/G23</f>
-        <v>285.67096256684493</v>
-      </c>
-      <c r="G23" s="13">
+        <v>281.30795640126365</v>
+      </c>
+      <c r="G23" s="11">
         <f>G15+G19</f>
-        <v>14025</v>
-      </c>
-      <c r="H23" s="13">
+        <v>14940.8</v>
+      </c>
+      <c r="H23" s="11">
         <f>H19+H15</f>
-        <v>4006535.25</v>
+        <v>4202965.915</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <f>80*2.205</f>
+        <v>176.4</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>23108.400000000001</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5">
+        <f>2.205*102</f>
+        <v>224.91</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>29463.21</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>38221.47</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="11">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="11">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="11">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="5">
+        <f>2.205*66</f>
+        <v>145.53</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>31143.420000000002</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>54792.045000000006</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="5">
+        <f>2.205*64</f>
+        <v>141.12</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>35421.120000000003</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="5">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>51438.240000000005</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
+        <f>C19</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="H11" s="15">
+        <f>D19</f>
+        <v>329318.95500000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>32744.250000000004</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="5">
+        <f>2.205*88</f>
+        <v>194.04000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>32986.800000000003</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="12">
+        <f>H15/G15</f>
+        <v>276.94369465353111</v>
+      </c>
+      <c r="G15" s="11">
+        <f>G7+G11</f>
+        <v>10840.8</v>
+      </c>
+      <c r="H15" s="11">
+        <f>H11+H7</f>
+        <v>3002291.2050000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>329318.95500000002</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
+        <v>4100</v>
+      </c>
+      <c r="H19" s="15">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="12">
+        <f>H23/G23</f>
+        <v>279.29168484953954</v>
+      </c>
+      <c r="G23" s="11">
+        <f>G15+G19</f>
+        <v>14940.8</v>
+      </c>
+      <c r="H23" s="11">
+        <f>H19+H15</f>
+        <v>4172841.2050000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4307,476 +4768,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5">
-        <v>131</v>
-      </c>
-      <c r="C5" s="5">
-        <v>80</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>10480</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="5">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5">
-        <v>102</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>13362</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5">
-        <v>214</v>
-      </c>
-      <c r="C7" s="5">
-        <v>81</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>17334</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="13">
-        <v>291.64999999999998</v>
-      </c>
-      <c r="G7" s="13">
-        <v>9165</v>
-      </c>
-      <c r="H7" s="13">
-        <f>G7*F7</f>
-        <v>2672972.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5">
-        <v>214</v>
-      </c>
-      <c r="C8" s="5">
-        <v>66</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>14124</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5">
-        <v>251</v>
-      </c>
-      <c r="C9" s="5">
-        <v>99</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>24849</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="5">
-        <v>251</v>
-      </c>
-      <c r="C10" s="5">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>16064</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="5">
-        <v>288</v>
-      </c>
-      <c r="C11" s="5">
-        <v>81</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>23328</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
-        <f>C19</f>
-        <v>760</v>
-      </c>
-      <c r="H11" s="18">
-        <f>D19</f>
-        <v>149351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="5">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5">
-        <v>99</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>14850</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="5">
-        <v>170</v>
-      </c>
-      <c r="C13" s="5">
-        <v>88</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>14960</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="16">
-        <f>H15/G15</f>
-        <v>284.36506297229221</v>
-      </c>
-      <c r="G15" s="13">
-        <f>G7+G11</f>
-        <v>9925</v>
-      </c>
-      <c r="H15" s="13">
-        <f>H11+H7</f>
-        <v>2822323.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="5">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5">
-        <v>321</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>338</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>760</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>149351</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
-        <v>4100</v>
-      </c>
-      <c r="H19" s="18">
-        <f>11705.5*100</f>
-        <v>1170550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="16">
-        <f>H23/G23</f>
-        <v>284.69684491978609</v>
-      </c>
-      <c r="G23" s="13">
-        <f>G15+G19</f>
-        <v>14025</v>
-      </c>
-      <c r="H23" s="13">
-        <f>H19+H15</f>
-        <v>3992873.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C39D154-1F26-4105-A8FA-B8B6FE50AD62}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4877,11 +4874,11 @@
       </c>
       <c r="I8">
         <f>('Weight&amp;Balance'!H$15+H8)/('Weight&amp;Balance'!G$15+'Changing CG'!C8)</f>
-        <v>283.91733902015551</v>
+        <v>279.42805483378993</v>
       </c>
       <c r="J8">
         <f>(I8-B$1)/B$2</f>
-        <v>0.39957198098487906</v>
+        <v>0.34413503128908279</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4918,11 +4915,11 @@
       </c>
       <c r="I9">
         <f>('Weight&amp;Balance'!H$15+H9)/('Weight&amp;Balance'!G$15+'Changing CG'!C9)</f>
-        <v>283.50330813426064</v>
+        <v>279.03480146778094</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J14" si="2">(I9-B$1)/B$2</f>
-        <v>0.39445922615782453</v>
+        <v>0.33927885240529676</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4959,11 +4956,11 @@
       </c>
       <c r="I10">
         <f>('Weight&amp;Balance'!H$15+H10)/('Weight&amp;Balance'!G$15+'Changing CG'!C10)</f>
-        <v>283.4332517614971</v>
+        <v>278.96010960126961</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0.39359411906022596</v>
+        <v>0.33835650285588548</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5000,11 +4997,11 @@
       </c>
       <c r="I11">
         <f>('Weight&amp;Balance'!H$15+H11)/('Weight&amp;Balance'!G$15+'Changing CG'!C11)</f>
-        <v>283.43095783406642</v>
+        <v>278.95384099902139</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>0.39356579197414687</v>
+        <v>0.33827909359127428</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5041,11 +5038,11 @@
       </c>
       <c r="I12">
         <f>('Weight&amp;Balance'!H$15+H12)/('Weight&amp;Balance'!G$15+'Changing CG'!C12)</f>
-        <v>283.42777414945323</v>
+        <v>278.94514229114304</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>0.3935264775185629</v>
+        <v>0.33817167561302841</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5082,11 +5079,11 @@
       </c>
       <c r="I13">
         <f>('Weight&amp;Balance'!H$15+H13)/('Weight&amp;Balance'!G$15+'Changing CG'!C13)</f>
-        <v>283.42511442256523</v>
+        <v>278.937876364722</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>0.39349363327445325</v>
+        <v>0.33808195066339836</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5123,11 +5120,11 @@
       </c>
       <c r="I14">
         <f>('Weight&amp;Balance'!H$15+H14)/('Weight&amp;Balance'!G$15+'Changing CG'!C14)</f>
-        <v>283.4220927222899</v>
+        <v>278.92962289528748</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0.39345631911941098</v>
+        <v>0.33798003081362654</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5199,11 +5196,11 @@
       </c>
       <c r="I18">
         <f>('Sartaj Moved Weight and Balance'!H$15+'Changing CG'!H18)/('Sartaj Moved Weight and Balance'!G$15+'Changing CG'!C18)</f>
-        <v>284.55533668878212</v>
+        <v>278.80802955348997</v>
       </c>
       <c r="J18">
         <f>(I18-B$1)/B$2</f>
-        <v>0.4074504407110659</v>
+        <v>0.33647850769930809</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5238,11 +5235,11 @@
       </c>
       <c r="I19">
         <f>('Sartaj Moved Weight and Balance'!H$15+'Changing CG'!H19)/('Sartaj Moved Weight and Balance'!G$15+'Changing CG'!C19)</f>
-        <v>284.55238972555617</v>
+        <v>278.79213570244627</v>
       </c>
       <c r="J19">
         <f>(I19-B$1)/B$2</f>
-        <v>0.40741404946352389</v>
+        <v>0.33628223885460939</v>
       </c>
     </row>
   </sheetData>
@@ -6496,22 +6493,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16">
-    <cfRule type="containsBlanks" dxfId="31" priority="36">
+    <cfRule type="containsBlanks" dxfId="30" priority="36">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsBlanks" dxfId="30" priority="33">
+    <cfRule type="containsBlanks" dxfId="29" priority="33">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="29" priority="35">
+    <cfRule type="containsBlanks" dxfId="28" priority="35">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C33">
-    <cfRule type="containsBlanks" dxfId="28" priority="34">
+    <cfRule type="containsBlanks" dxfId="27" priority="34">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6681,7 +6678,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6697,62 +6694,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -6762,18 +6759,19 @@
         <v>131</v>
       </c>
       <c r="C5" s="2">
-        <v>95</v>
+        <f>2.205*95</f>
+        <v>209.47499999999999</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>12445</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>27441.224999999999</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -6783,16 +6781,17 @@
         <v>131</v>
       </c>
       <c r="C6" s="2">
-        <v>92</v>
+        <f>2.205*92</f>
+        <v>202.86</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>12052</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>26574.660000000003</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -6802,22 +6801,23 @@
         <v>214</v>
       </c>
       <c r="C7" s="2">
-        <v>66</v>
+        <f>2.205*66</f>
+        <v>145.53</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>14124</v>
-      </c>
-      <c r="E7" s="13" t="s">
+        <v>31143.420000000002</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>9165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -6830,16 +6830,17 @@
         <v>214</v>
       </c>
       <c r="C8" s="2">
-        <v>61</v>
+        <f>2.205*61</f>
+        <v>134.505</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>13054</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+        <v>28784.07</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -6849,18 +6850,19 @@
         <v>251</v>
       </c>
       <c r="C9" s="2">
-        <v>75</v>
+        <f>2.205*75</f>
+        <v>165.375</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>18825</v>
-      </c>
-      <c r="E9" s="11" t="s">
+        <v>41509.125</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -6870,16 +6872,17 @@
         <v>251</v>
       </c>
       <c r="C10" s="2">
-        <v>78</v>
+        <f>2.205*78</f>
+        <v>171.99</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>19578</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+        <v>43169.490000000005</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -6889,21 +6892,22 @@
         <v>288</v>
       </c>
       <c r="C11" s="2">
-        <v>86</v>
+        <f>2.205*86</f>
+        <v>189.63</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>24768</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+        <v>54613.440000000002</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
         <f>C19</f>
-        <v>695</v>
-      </c>
-      <c r="H11" s="18">
+        <v>1532.4750000000004</v>
+      </c>
+      <c r="H11" s="15">
         <f>D19</f>
-        <v>147010</v>
+        <v>324157.05000000005</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6914,16 +6918,17 @@
         <v>288</v>
       </c>
       <c r="C12" s="2">
-        <v>68</v>
+        <f>2.205*68</f>
+        <v>149.94</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>19584</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+        <v>43182.720000000001</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -6933,50 +6938,51 @@
         <v>170</v>
       </c>
       <c r="C13" s="2">
-        <v>74</v>
+        <f>2.205*74</f>
+        <v>163.17000000000002</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>12580</v>
-      </c>
-      <c r="E13" s="19" t="s">
+        <v>27738.9</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f>H15/G15</f>
-        <v>286.0022565922921</v>
-      </c>
-      <c r="G15" s="13">
+        <v>280.17165733035131</v>
+      </c>
+      <c r="G15" s="11">
         <f>G7+G11</f>
-        <v>9860</v>
-      </c>
-      <c r="H15" s="13">
+        <v>10697.475</v>
+      </c>
+      <c r="H15" s="11">
         <f>H11+H7</f>
-        <v>2819982.25</v>
+        <v>2997129.3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -6992,10 +6998,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -7010,12 +7016,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -7027,10 +7033,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -7039,68 +7045,93 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9">
         <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>695</v>
+        <v>1532.4750000000004</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>147010</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+        <v>324157.05000000005</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="12">
         <f>H23/G23</f>
-        <v>286.88226096333574</v>
-      </c>
-      <c r="G23" s="13">
+        <v>282.60290659926528</v>
+      </c>
+      <c r="G23" s="11">
         <f>G15+G19</f>
-        <v>13910</v>
-      </c>
-      <c r="H23" s="13">
+        <v>14747.475</v>
+      </c>
+      <c r="H23" s="11">
         <f>H19+H15</f>
-        <v>3990532.25</v>
+        <v>4167679.3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
@@ -7111,31 +7142,6 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7146,7 +7152,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7162,62 +7168,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7227,18 +7233,19 @@
         <v>131</v>
       </c>
       <c r="C5" s="2">
-        <v>95</v>
+        <f>2.205*95</f>
+        <v>209.47499999999999</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>12445</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>27441.224999999999</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -7248,16 +7255,17 @@
         <v>131</v>
       </c>
       <c r="C6" s="2">
-        <v>92</v>
+        <f>2.205*92</f>
+        <v>202.86</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>12052</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>26574.660000000003</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -7267,22 +7275,23 @@
         <v>214</v>
       </c>
       <c r="C7" s="2">
-        <v>66</v>
+        <f>2.205*66</f>
+        <v>145.53</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>14124</v>
-      </c>
-      <c r="E7" s="13" t="s">
+        <v>31143.420000000002</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>9165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -7295,16 +7304,17 @@
         <v>214</v>
       </c>
       <c r="C8" s="2">
-        <v>61</v>
+        <f>2.205*61</f>
+        <v>134.505</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>13054</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+        <v>28784.07</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -7314,18 +7324,19 @@
         <v>251</v>
       </c>
       <c r="C9" s="2">
-        <v>75</v>
+        <f>2.205*75</f>
+        <v>165.375</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>18825</v>
-      </c>
-      <c r="E9" s="11" t="s">
+        <v>41509.125</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -7335,16 +7346,17 @@
         <v>251</v>
       </c>
       <c r="C10" s="2">
-        <v>78</v>
+        <f>2.205*78</f>
+        <v>171.99</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>19578</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+        <v>43169.490000000005</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -7354,21 +7366,22 @@
         <v>288</v>
       </c>
       <c r="C11" s="2">
-        <v>86</v>
+        <f>2.205*86</f>
+        <v>189.63</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>24768</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+        <v>54613.440000000002</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
         <f>C19</f>
-        <v>695</v>
-      </c>
-      <c r="H11" s="18">
+        <v>1532.4750000000004</v>
+      </c>
+      <c r="H11" s="15">
         <f>D19</f>
-        <v>137626</v>
+        <v>303465.33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7379,16 +7392,17 @@
         <v>150</v>
       </c>
       <c r="C12" s="2">
-        <v>68</v>
+        <f>2.205*68</f>
+        <v>149.94</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+        <v>22491</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -7398,50 +7412,51 @@
         <v>170</v>
       </c>
       <c r="C13" s="2">
-        <v>74</v>
+        <f>2.205*74</f>
+        <v>163.17000000000002</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>12580</v>
-      </c>
-      <c r="E13" s="19" t="s">
+        <v>27738.9</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f>H15/G15</f>
-        <v>285.05053245436108</v>
-      </c>
-      <c r="G15" s="13">
+        <v>278.23739527318361</v>
+      </c>
+      <c r="G15" s="11">
         <f>G7+G11</f>
-        <v>9860</v>
-      </c>
-      <c r="H15" s="13">
+        <v>10697.475</v>
+      </c>
+      <c r="H15" s="11">
         <f>H11+H7</f>
-        <v>2810598.25</v>
+        <v>2976437.58</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -7457,10 +7472,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -7475,12 +7490,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -7492,10 +7507,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -7504,68 +7519,93 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9">
         <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>695</v>
+        <v>1532.4750000000004</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>137626</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+        <v>303465.33</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="12">
         <f>H23/G23</f>
-        <v>286.20763838964774</v>
-      </c>
-      <c r="G23" s="13">
+        <v>281.19983793835894</v>
+      </c>
+      <c r="G23" s="11">
         <f>G15+G19</f>
-        <v>13910</v>
-      </c>
-      <c r="H23" s="13">
+        <v>14747.475</v>
+      </c>
+      <c r="H23" s="11">
         <f>H19+H15</f>
-        <v>3981148.25</v>
+        <v>4146987.58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
@@ -7576,31 +7616,6 @@
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7712,11 +7727,11 @@
       </c>
       <c r="I8">
         <f>('Reference Weight&amp;Balance'!H$15+H8)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C8)</f>
-        <v>286.09989808244001</v>
+        <v>281.66530632532096</v>
       </c>
       <c r="J8">
         <f>(I8-B$1)/B$2</f>
-        <v>0.42652380936576934</v>
+        <v>0.37176224160682825</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -7753,11 +7768,11 @@
       </c>
       <c r="I9">
         <f>('Reference Weight&amp;Balance'!H$15+H9)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C9)</f>
-        <v>284.84441358958838</v>
+        <v>280.47517215492962</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J14" si="2">(I9-B$1)/B$2</f>
-        <v>0.4110201727536229</v>
+        <v>0.35706559835675006</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -7794,11 +7809,11 @@
       </c>
       <c r="I10">
         <f>('Reference Weight&amp;Balance'!H$15+H10)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C10)</f>
-        <v>282.32510242792108</v>
+        <v>278.09515622464102</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0.37990988426674582</v>
+        <v>0.32767542880514955</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -7835,11 +7850,11 @@
       </c>
       <c r="I11">
         <f>('Reference Weight&amp;Balance'!H$15+H11)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C11)</f>
-        <v>283.62093880653742</v>
+        <v>279.30587690883851</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>0.39591181534375675</v>
+        <v>0.34262628931635603</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -7876,11 +7891,11 @@
       </c>
       <c r="I12">
         <f>('Reference Weight&amp;Balance'!H$15+H12)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C12)</f>
-        <v>283.61392388651615</v>
+        <v>279.28598173049522</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>0.39582519000390398</v>
+        <v>0.34238060916887159</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -7917,11 +7932,11 @@
       </c>
       <c r="I13">
         <f>('Reference Weight&amp;Balance'!H$15+H13)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C13)</f>
-        <v>283.60949560565535</v>
+        <v>279.27342659979632</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>0.39577050636768768</v>
+        <v>0.34222556927384934</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -7958,11 +7973,11 @@
       </c>
       <c r="I14">
         <f>('Reference Weight&amp;Balance'!H$15+H14)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C14)</f>
-        <v>283.60603873239438</v>
+        <v>279.26362778050526</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0.39572781837977744</v>
+        <v>0.34210456631890906</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -8031,11 +8046,11 @@
       </c>
       <c r="I18">
         <f>('Reference Moved Weight&amp;Balance'!H$15+H18)/('Reference Moved Weight&amp;Balance'!G$15+'Changing CG Reference'!C18)</f>
-        <v>285.07327423440017</v>
+        <v>279.8158162041903</v>
       </c>
       <c r="J18">
         <f>(I18-B$1)/B$2</f>
-        <v>0.41384631062484772</v>
+        <v>0.34892339101247588</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -8070,11 +8085,11 @@
       </c>
       <c r="I19">
         <f>('Reference Moved Weight&amp;Balance'!H$15+H19)/('Reference Moved Weight&amp;Balance'!G$15+'Changing CG Reference'!C19)</f>
-        <v>285.07174230769232</v>
+        <v>279.80335863298757</v>
       </c>
       <c r="J19">
         <f>(I19-B$1)/B$2</f>
-        <v>0.41382739327849238</v>
+        <v>0.34876955585314356</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B1615-4DA9-449D-98E0-9FFE4A2598FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD8C3A-886B-4D2A-BB9E-B71C04EA7192}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
@@ -594,29 +594,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3843,62 +3843,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -3915,12 +3915,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>23108.400000000001</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -3937,10 +3937,10 @@
         <f t="shared" si="0"/>
         <v>29463.21</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3957,16 +3957,16 @@
         <f t="shared" si="0"/>
         <v>38221.47</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>9165</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="13">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -3986,10 +3986,10 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -4006,12 +4006,12 @@
         <f t="shared" si="0"/>
         <v>54792.045000000006</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -4028,10 +4028,10 @@
         <f t="shared" si="0"/>
         <v>35421.120000000003</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -4048,13 +4048,13 @@
         <f t="shared" si="0"/>
         <v>51438.240000000005</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>C19</f>
         <v>1675.8000000000002</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="18">
         <f>D19</f>
         <v>359443.66500000004</v>
       </c>
@@ -4074,10 +4074,10 @@
         <f t="shared" si="0"/>
         <v>62868.960000000006</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -4094,42 +4094,42 @@
         <f t="shared" si="0"/>
         <v>32986.800000000003</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="16">
         <f>H15/G15</f>
         <v>279.72252186185523</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="13">
         <f>G7+G11</f>
         <v>10840.8</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="13">
         <f>H11+H7</f>
         <v>3032415.915</v>
       </c>
@@ -4147,10 +4147,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -4165,12 +4165,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -4182,10 +4182,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -4200,58 +4200,531 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>359443.66500000004</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
         <v>4100</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="18">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="16">
         <f>H23/G23</f>
         <v>281.30795640126365</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="13">
         <f>G15+G19</f>
         <v>14940.8</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="13">
         <f>H19+H15</f>
         <v>4202965.915</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <f>80*2.205</f>
+        <v>176.4</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>23108.400000000001</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5">
+        <f>2.205*102</f>
+        <v>224.91</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>29463.21</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>38221.47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="13">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="13">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="13">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="5">
+        <f>2.205*66</f>
+        <v>145.53</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>31143.420000000002</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>54792.045000000006</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="5">
+        <f>2.205*64</f>
+        <v>141.12</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>35421.120000000003</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="5">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>51438.240000000005</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
+        <f>C19</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="H11" s="18">
+        <f>D19</f>
+        <v>329318.95500000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>32744.250000000004</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="5">
+        <f>2.205*88</f>
+        <v>194.04000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>32986.800000000003</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="16">
+        <f>H15/G15</f>
+        <v>276.94369465353111</v>
+      </c>
+      <c r="G15" s="13">
+        <f>G7+G11</f>
+        <v>10840.8</v>
+      </c>
+      <c r="H15" s="13">
+        <f>H11+H7</f>
+        <v>3002291.2050000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>329318.95500000002</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
+        <v>4100</v>
+      </c>
+      <c r="H19" s="18">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="16">
+        <f>H23/G23</f>
+        <v>279.29168484953954</v>
+      </c>
+      <c r="G23" s="13">
+        <f>G15+G19</f>
+        <v>14940.8</v>
+      </c>
+      <c r="H23" s="13">
+        <f>H19+H15</f>
+        <v>4172841.2050000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4295,485 +4768,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5">
-        <v>131</v>
-      </c>
-      <c r="C5" s="5">
-        <f>80*2.205</f>
-        <v>176.4</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>23108.400000000001</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="5">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5">
-        <f>2.205*102</f>
-        <v>224.91</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>29463.21</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5">
-        <v>214</v>
-      </c>
-      <c r="C7" s="5">
-        <f>2.205*81</f>
-        <v>178.60500000000002</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>38221.47</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="11">
-        <v>291.64999999999998</v>
-      </c>
-      <c r="G7" s="11">
-        <v>9165</v>
-      </c>
-      <c r="H7" s="11">
-        <f>G7*F7</f>
-        <v>2672972.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5">
-        <v>214</v>
-      </c>
-      <c r="C8" s="5">
-        <f>2.205*66</f>
-        <v>145.53</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>31143.420000000002</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5">
-        <v>251</v>
-      </c>
-      <c r="C9" s="5">
-        <f>2.205*99</f>
-        <v>218.29500000000002</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>54792.045000000006</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="5">
-        <v>251</v>
-      </c>
-      <c r="C10" s="5">
-        <f>2.205*64</f>
-        <v>141.12</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>35421.120000000003</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="5">
-        <v>288</v>
-      </c>
-      <c r="C11" s="5">
-        <f>2.205*81</f>
-        <v>178.60500000000002</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>51438.240000000005</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
-        <f>C19</f>
-        <v>1675.8000000000002</v>
-      </c>
-      <c r="H11" s="15">
-        <f>D19</f>
-        <v>329318.95500000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="5">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5">
-        <f>2.205*99</f>
-        <v>218.29500000000002</v>
-      </c>
-      <c r="D12" s="5">
-        <f>B12*C12</f>
-        <v>32744.250000000004</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="5">
-        <v>170</v>
-      </c>
-      <c r="C13" s="5">
-        <f>2.205*88</f>
-        <v>194.04000000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>32986.800000000003</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="12">
-        <f>H15/G15</f>
-        <v>276.94369465353111</v>
-      </c>
-      <c r="G15" s="11">
-        <f>G7+G11</f>
-        <v>10840.8</v>
-      </c>
-      <c r="H15" s="11">
-        <f>H11+H7</f>
-        <v>3002291.2050000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="5">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5">
-        <v>321</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>338</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>1675.8000000000002</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>329318.95500000002</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
-        <v>4100</v>
-      </c>
-      <c r="H19" s="15">
-        <f>11705.5*100</f>
-        <v>1170550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="12">
-        <f>H23/G23</f>
-        <v>279.29168484953954</v>
-      </c>
-      <c r="G23" s="11">
-        <f>G15+G19</f>
-        <v>14940.8</v>
-      </c>
-      <c r="H23" s="11">
-        <f>H19+H15</f>
-        <v>4172841.2050000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C39D154-1F26-4105-A8FA-B8B6FE50AD62}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4865,20 +4865,20 @@
         <v>969696.99999999988</v>
       </c>
       <c r="G8">
-        <f>F10</f>
-        <v>912479.99999999988</v>
+        <f>9410.62*100</f>
+        <v>941062.00000000012</v>
       </c>
       <c r="H8">
         <f>((F8-G8)/(D8-E8))*(C8-E8)+G8</f>
-        <v>925067.73999999987</v>
+        <v>947361.70000000007</v>
       </c>
       <c r="I8">
         <f>('Weight&amp;Balance'!H$15+H8)/('Weight&amp;Balance'!G$15+'Changing CG'!C8)</f>
-        <v>279.42805483378993</v>
+        <v>281.00217577032794</v>
       </c>
       <c r="J8">
         <f>(I8-B$1)/B$2</f>
-        <v>0.34413503128908279</v>
+        <v>0.36357342270101178</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4907,19 +4907,19 @@
       </c>
       <c r="G9">
         <f>F11</f>
-        <v>912479.99999999988</v>
+        <v>941062.00000000012</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H19" si="1">((F9-G9)/(D9-E9))*(C9-E9)+G9</f>
-        <v>914196.50999999989</v>
+        <v>941921.05000000016</v>
       </c>
       <c r="I9">
         <f>('Weight&amp;Balance'!H$15+H9)/('Weight&amp;Balance'!G$15+'Changing CG'!C9)</f>
-        <v>279.03480146778094</v>
+        <v>280.9949917985266</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J14" si="2">(I9-B$1)/B$2</f>
-        <v>0.33927885240529676</v>
+        <v>0.36348470978669539</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4943,24 +4943,24 @@
         <v>3200</v>
       </c>
       <c r="F10">
+        <f>9410.62*100</f>
+        <v>941062.00000000012</v>
+      </c>
+      <c r="G10">
         <f>9124.8*100</f>
         <v>912479.99999999988</v>
       </c>
-      <c r="G10">
-        <f>8839.04*100</f>
-        <v>883904.00000000012</v>
-      </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>905050.24</v>
+        <v>933630.68</v>
       </c>
       <c r="I10">
         <f>('Weight&amp;Balance'!H$15+H10)/('Weight&amp;Balance'!G$15+'Changing CG'!C10)</f>
-        <v>278.96010960126961</v>
+        <v>280.98496578059911</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0.33835650285588548</v>
+        <v>0.36336090121757358</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4984,24 +4984,24 @@
         <v>3200</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F14" si="4">9124.8*100</f>
+        <f t="shared" ref="F11:F14" si="4">9410.62*100</f>
+        <v>941062.00000000012</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="5">9124.8*100</f>
         <v>912479.99999999988</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G14" si="5">8839.04*100</f>
-        <v>883904.00000000012</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>901335.36</v>
+        <v>929915.02</v>
       </c>
       <c r="I11">
         <f>('Weight&amp;Balance'!H$15+H11)/('Weight&amp;Balance'!G$15+'Changing CG'!C11)</f>
-        <v>278.95384099902139</v>
+        <v>280.98050851664328</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>0.33827909359127428</v>
+        <v>0.36330585967699774</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,23 +5026,23 @@
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>912479.99999999988</v>
+        <v>941062.00000000012</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>883904.00000000012</v>
+        <v>912479.99999999988</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>896191.68</v>
+        <v>924770.26</v>
       </c>
       <c r="I12">
         <f>('Weight&amp;Balance'!H$15+H12)/('Weight&amp;Balance'!G$15+'Changing CG'!C12)</f>
-        <v>278.94514229114304</v>
+        <v>280.97432333603149</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>0.33817167561302841</v>
+        <v>0.3632294805634908</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5067,23 +5067,23 @@
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>912479.99999999988</v>
+        <v>941062.00000000012</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>883904.00000000012</v>
+        <v>912479.99999999988</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>891905.28</v>
+        <v>920482.96</v>
       </c>
       <c r="I13">
         <f>('Weight&amp;Balance'!H$15+H13)/('Weight&amp;Balance'!G$15+'Changing CG'!C13)</f>
-        <v>278.937876364722</v>
+        <v>280.96915692880702</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>0.33808195066339836</v>
+        <v>0.36316568200552013</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5108,23 +5108,23 @@
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>912479.99999999988</v>
+        <v>941062.00000000012</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>883904.00000000012</v>
+        <v>912479.99999999988</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>887047.3600000001</v>
+        <v>915624.0199999999</v>
       </c>
       <c r="I14">
         <f>('Weight&amp;Balance'!H$15+H14)/('Weight&amp;Balance'!G$15+'Changing CG'!C14)</f>
-        <v>278.92962289528748</v>
+        <v>280.96328833316733</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0.33798003081362654</v>
+        <v>0.36309321231374814</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -6694,62 +6694,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -6766,12 +6766,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -6788,10 +6788,10 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -6808,16 +6808,16 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>9165</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="13">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -6837,10 +6837,10 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -6857,12 +6857,12 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -6879,10 +6879,10 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -6899,13 +6899,13 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="18">
         <f>D19</f>
         <v>324157.05000000005</v>
       </c>
@@ -6925,10 +6925,10 @@
         <f t="shared" si="0"/>
         <v>43182.720000000001</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -6945,42 +6945,42 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="16">
         <f>H15/G15</f>
         <v>280.17165733035131</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="13">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="13">
         <f>H11+H7</f>
         <v>2997129.3</v>
       </c>
@@ -6998,10 +6998,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -7016,12 +7016,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -7033,10 +7033,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -7051,62 +7051,82 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>324157.05000000005</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="18">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="16">
         <f>H23/G23</f>
         <v>282.60290659926528</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="13">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="13">
         <f>H19+H15</f>
         <v>4167679.3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -7122,26 +7142,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7168,62 +7168,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7240,12 +7240,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -7262,10 +7262,10 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -7282,16 +7282,16 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>9165</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="13">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -7311,10 +7311,10 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -7331,12 +7331,12 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -7353,10 +7353,10 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -7373,13 +7373,13 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="18">
         <f>D19</f>
         <v>303465.33</v>
       </c>
@@ -7399,10 +7399,10 @@
         <f t="shared" si="0"/>
         <v>22491</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -7419,42 +7419,42 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="16">
         <f>H15/G15</f>
         <v>278.23739527318361</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="13">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="13">
         <f>H11+H7</f>
         <v>2976437.58</v>
       </c>
@@ -7472,10 +7472,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -7490,12 +7490,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -7507,10 +7507,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -7525,62 +7525,82 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>303465.33</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="18">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="16">
         <f>H23/G23</f>
         <v>281.19983793835894</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="13">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="13">
         <f>H19+H15</f>
         <v>4146987.58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -7596,26 +7616,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7625,8 +7625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173147DD-84D5-4EF1-B05D-B79BDAC94B57}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7718,20 +7718,20 @@
         <v>969696.99999999988</v>
       </c>
       <c r="G8">
-        <f>F10</f>
-        <v>969696.99999999988</v>
+        <f>F11</f>
+        <v>941062.00000000012</v>
       </c>
       <c r="H8">
         <f>((F8-G8)/(D8-E8))*(C8-E8)+G8</f>
-        <v>969696.99999999988</v>
+        <v>965688.09999999986</v>
       </c>
       <c r="I8">
         <f>('Reference Weight&amp;Balance'!H$15+H8)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C8)</f>
-        <v>281.66530632532096</v>
+        <v>281.38065356739008</v>
       </c>
       <c r="J8">
         <f>(I8-B$1)/B$2</f>
-        <v>0.37176224160682825</v>
+        <v>0.36824714210163101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -7760,19 +7760,19 @@
       </c>
       <c r="G9">
         <f>F11</f>
-        <v>912479.99999999988</v>
+        <v>941062.00000000012</v>
       </c>
       <c r="H9">
         <f t="shared" ref="H9:H19" si="1">((F9-G9)/(D9-E9))*(C9-E9)+G9</f>
-        <v>944521.5199999999</v>
+        <v>957097.6</v>
       </c>
       <c r="I9">
         <f>('Reference Weight&amp;Balance'!H$15+H9)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C9)</f>
-        <v>280.47517215492962</v>
+        <v>281.3700454869703</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9:J14" si="2">(I9-B$1)/B$2</f>
-        <v>0.35706559835675006</v>
+        <v>0.36811614580106561</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -7800,20 +7800,20 @@
         <v>969696.99999999988</v>
       </c>
       <c r="G10">
-        <f>8839.04*100</f>
-        <v>883904.00000000012</v>
+        <f>9124.8*100</f>
+        <v>912479.99999999988</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>901062.60000000009</v>
+        <v>923923.39999999991</v>
       </c>
       <c r="I10">
         <f>('Reference Weight&amp;Balance'!H$15+H10)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C10)</f>
-        <v>278.09515622464102</v>
+        <v>279.72603482438882</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0.32767542880514955</v>
+        <v>0.3478147051665697</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -7837,24 +7837,24 @@
         <v>3200</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F14" si="4">9124.8*100</f>
+        <f>9410.62*100</f>
+        <v>941062.00000000012</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="4">9124.8*100</f>
         <v>912479.99999999988</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G14" si="5">8839.04*100</f>
-        <v>883904.00000000012</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>911051.2</v>
+        <v>939632.90000000014</v>
       </c>
       <c r="I11">
         <f>('Reference Weight&amp;Balance'!H$15+H11)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C11)</f>
-        <v>279.30587690883851</v>
+        <v>281.34852483209727</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>0.34262628931635603</v>
+        <v>0.36785039308591339</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -7878,24 +7878,24 @@
         <v>3200</v>
       </c>
       <c r="F12">
+        <f t="shared" ref="F12:F14" si="5">9410.62*100</f>
+        <v>941062.00000000012</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="4"/>
         <v>912479.99999999988</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>883904.00000000012</v>
-      </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>898763.52</v>
+        <v>927342.64</v>
       </c>
       <c r="I12">
         <f>('Reference Weight&amp;Balance'!H$15+H12)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C12)</f>
-        <v>279.28598173049522</v>
+        <v>281.33474127162492</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>0.34238060916887159</v>
+        <v>0.36768018364565225</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -7919,24 +7919,24 @@
         <v>3200</v>
       </c>
       <c r="F13">
+        <f t="shared" si="5"/>
+        <v>941062.00000000012</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="4"/>
         <v>912479.99999999988</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>883904.00000000012</v>
-      </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>891048</v>
+        <v>919625.5</v>
       </c>
       <c r="I13">
         <f>('Reference Weight&amp;Balance'!H$15+H13)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C13)</f>
-        <v>279.27342659979632</v>
+        <v>281.32604296290708</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>0.34222556927384934</v>
+        <v>0.36757277059653098</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -7960,24 +7960,24 @@
         <v>3200</v>
       </c>
       <c r="F14">
+        <f t="shared" si="5"/>
+        <v>941062.00000000012</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="4"/>
         <v>912479.99999999988</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>883904.00000000012</v>
-      </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>885047.04000000015</v>
+        <v>913623.27999999991</v>
       </c>
       <c r="I14">
         <f>('Reference Weight&amp;Balance'!H$15+H14)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C14)</f>
-        <v>279.26362778050526</v>
+        <v>281.31925425179696</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0.34210456631890906</v>
+        <v>0.36748893864901161</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">

--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\3rd quarter\SVV flight\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD8C3A-886B-4D2A-BB9E-B71C04EA7192}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776E743-B9DF-4426-B594-A0CE8F9A798F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -594,29 +596,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2419,21 +2421,21 @@
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2461,13 +2463,13 @@
         <v>0.67708333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2497,7 +2499,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2506,7 +2508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2533,7 +2535,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2551,7 +2553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2560,7 +2562,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2568,12 +2570,12 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>-9.8000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -2838,23 +2840,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2931,7 +2933,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2947,7 +2949,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2963,7 +2965,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2979,7 +2981,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2995,7 +2997,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -3011,7 +3013,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -3027,17 +3029,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>-14.2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>-15.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -3397,23 +3399,23 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3466,7 +3468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3582,17 +3584,17 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -3603,7 +3605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3830,77 +3832,77 @@
       <selection activeCell="A14" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -3915,14 +3917,14 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>23108.400000000001</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -3937,12 +3939,12 @@
         <f t="shared" si="0"/>
         <v>29463.21</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -3957,21 +3959,21 @@
         <f t="shared" si="0"/>
         <v>38221.47</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>9165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3986,12 +3988,12 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4006,14 +4008,14 @@
         <f t="shared" si="0"/>
         <v>54792.045000000006</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -4028,12 +4030,12 @@
         <f t="shared" si="0"/>
         <v>35421.120000000003</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -4048,18 +4050,18 @@
         <f t="shared" si="0"/>
         <v>51438.240000000005</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
         <f>C19</f>
         <v>1675.8000000000002</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <f>D19</f>
         <v>359443.66500000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -4074,12 +4076,12 @@
         <f t="shared" si="0"/>
         <v>62868.960000000006</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -4094,47 +4096,47 @@
         <f t="shared" si="0"/>
         <v>32986.800000000003</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f>H15/G15</f>
         <v>279.72252186185523</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f>G7+G11</f>
         <v>10840.8</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f>H11+H7</f>
         <v>3032415.915</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -4147,12 +4149,12 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -4165,14 +4167,14 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>338</v>
       </c>
@@ -4182,12 +4184,12 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -4200,58 +4202,531 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>359443.66500000004</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
         <v>4100</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="12">
         <f>H23/G23</f>
         <v>281.30795640126365</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <f>G15+G19</f>
         <v>14940.8</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f>H19+H15</f>
         <v>4202965.915</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <f>80*2.205</f>
+        <v>176.4</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>23108.400000000001</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5">
+        <f>2.205*102</f>
+        <v>224.91</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>29463.21</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>38221.47</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="11">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="11">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="11">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="5">
+        <f>2.205*66</f>
+        <v>145.53</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>31143.420000000002</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>54792.045000000006</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="5">
+        <f>2.205*64</f>
+        <v>141.12</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>35421.120000000003</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="5">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>51438.240000000005</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
+        <f>C19</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="H11" s="15">
+        <f>D19</f>
+        <v>329318.95500000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>32744.250000000004</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="5">
+        <f>2.205*88</f>
+        <v>194.04000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>32986.800000000003</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="12">
+        <f>H15/G15</f>
+        <v>276.94369465353111</v>
+      </c>
+      <c r="G15" s="11">
+        <f>G7+G11</f>
+        <v>10840.8</v>
+      </c>
+      <c r="H15" s="11">
+        <f>H11+H7</f>
+        <v>3002291.2050000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>329318.95500000002</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
+        <v>4100</v>
+      </c>
+      <c r="H19" s="15">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="12">
+        <f>H23/G23</f>
+        <v>279.29168484953954</v>
+      </c>
+      <c r="G23" s="11">
+        <f>G15+G19</f>
+        <v>14940.8</v>
+      </c>
+      <c r="H23" s="11">
+        <f>H19+H15</f>
+        <v>4172841.2050000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4295,479 +4770,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5">
-        <v>131</v>
-      </c>
-      <c r="C5" s="5">
-        <f>80*2.205</f>
-        <v>176.4</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>23108.400000000001</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="5">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5">
-        <f>2.205*102</f>
-        <v>224.91</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>29463.21</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5">
-        <v>214</v>
-      </c>
-      <c r="C7" s="5">
-        <f>2.205*81</f>
-        <v>178.60500000000002</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>38221.47</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="13">
-        <v>291.64999999999998</v>
-      </c>
-      <c r="G7" s="13">
-        <v>9165</v>
-      </c>
-      <c r="H7" s="13">
-        <f>G7*F7</f>
-        <v>2672972.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5">
-        <v>214</v>
-      </c>
-      <c r="C8" s="5">
-        <f>2.205*66</f>
-        <v>145.53</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>31143.420000000002</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5">
-        <v>251</v>
-      </c>
-      <c r="C9" s="5">
-        <f>2.205*99</f>
-        <v>218.29500000000002</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>54792.045000000006</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="5">
-        <v>251</v>
-      </c>
-      <c r="C10" s="5">
-        <f>2.205*64</f>
-        <v>141.12</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>35421.120000000003</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="5">
-        <v>288</v>
-      </c>
-      <c r="C11" s="5">
-        <f>2.205*81</f>
-        <v>178.60500000000002</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>51438.240000000005</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
-        <f>C19</f>
-        <v>1675.8000000000002</v>
-      </c>
-      <c r="H11" s="18">
-        <f>D19</f>
-        <v>329318.95500000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="5">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5">
-        <f>2.205*99</f>
-        <v>218.29500000000002</v>
-      </c>
-      <c r="D12" s="5">
-        <f>B12*C12</f>
-        <v>32744.250000000004</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="5">
-        <v>170</v>
-      </c>
-      <c r="C13" s="5">
-        <f>2.205*88</f>
-        <v>194.04000000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>32986.800000000003</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="16">
-        <f>H15/G15</f>
-        <v>276.94369465353111</v>
-      </c>
-      <c r="G15" s="13">
-        <f>G7+G11</f>
-        <v>10840.8</v>
-      </c>
-      <c r="H15" s="13">
-        <f>H11+H7</f>
-        <v>3002291.2050000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="5">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5">
-        <v>321</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>338</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>1675.8000000000002</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>329318.95500000002</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
-        <v>4100</v>
-      </c>
-      <c r="H19" s="18">
-        <f>11705.5*100</f>
-        <v>1170550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="16">
-        <f>H23/G23</f>
-        <v>279.29168484953954</v>
-      </c>
-      <c r="G23" s="13">
-        <f>G15+G19</f>
-        <v>14940.8</v>
-      </c>
-      <c r="H23" s="13">
-        <f>H19+H15</f>
-        <v>4172841.2050000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C39D154-1F26-4105-A8FA-B8B6FE50AD62}">
   <dimension ref="A1:J19"/>
@@ -4776,18 +4778,18 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -4795,7 +4797,7 @@
         <v>251.56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -4803,12 +4805,12 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>1</f>
         <v>1</v>
@@ -4881,7 +4883,7 @@
         <v>0.36357342270101178</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8+1</f>
         <v>2</v>
@@ -4922,7 +4924,7 @@
         <v>0.36348470978669539</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ref="A10:A14" si="3">A9+1</f>
         <v>3</v>
@@ -4963,7 +4965,7 @@
         <v>0.36336090121757358</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -5004,7 +5006,7 @@
         <v>0.36330585967699774</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5045,7 +5047,7 @@
         <v>0.3632294805634908</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -5086,7 +5088,7 @@
         <v>0.36316568200552013</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5127,12 +5129,12 @@
         <v>0.36309321231374814</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>0.33647850769930809</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5251,25 +5253,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC9CFEA-7568-4A40-8F5A-02AE53ACD28F}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5297,13 +5299,13 @@
         <v>0.67708333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -5311,7 +5313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5322,7 +5324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5333,7 +5335,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5360,7 +5362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -5387,7 +5389,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -5404,12 +5406,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5417,7 +5419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5508,7 +5510,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5598,7 +5600,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -5628,7 +5630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -5674,23 +5676,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5767,7 +5769,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5783,7 +5785,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5799,7 +5801,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -5815,7 +5817,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -5831,7 +5833,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -5847,7 +5849,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5863,17 +5865,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6116,7 +6118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -6194,7 +6196,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -6233,23 +6235,23 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -6340,7 +6342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -6418,17 +6420,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -6450,7 +6452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -6681,77 +6683,77 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -6766,14 +6768,14 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -6788,12 +6790,12 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -6808,21 +6810,21 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>9165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -6837,12 +6839,12 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -6857,14 +6859,14 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -6879,12 +6881,12 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -6899,18 +6901,18 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <f>D19</f>
         <v>324157.05000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -6925,12 +6927,12 @@
         <f t="shared" si="0"/>
         <v>43182.720000000001</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -6945,47 +6947,47 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f>H15/G15</f>
         <v>280.17165733035131</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f>H11+H7</f>
         <v>2997129.3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -6998,12 +7000,12 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -7016,14 +7018,14 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>338</v>
       </c>
@@ -7033,12 +7035,12 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -7051,82 +7053,62 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>324157.05000000005</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="12">
         <f>H23/G23</f>
         <v>282.60290659926528</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f>H19+H15</f>
         <v>4167679.3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -7142,6 +7124,26 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7155,77 +7157,77 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -7240,14 +7242,14 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -7262,12 +7264,12 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -7282,21 +7284,21 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>9165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -7311,12 +7313,12 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -7331,14 +7333,14 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -7353,12 +7355,12 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -7373,18 +7375,18 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <f>D19</f>
         <v>303465.33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -7399,12 +7401,12 @@
         <f t="shared" si="0"/>
         <v>22491</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -7419,47 +7421,47 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f>H15/G15</f>
         <v>278.23739527318361</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f>H11+H7</f>
         <v>2976437.58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -7472,12 +7474,12 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -7490,14 +7492,14 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>338</v>
       </c>
@@ -7507,12 +7509,12 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -7525,82 +7527,62 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>303465.33</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="12">
         <f>H23/G23</f>
         <v>281.19983793835894</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f>H19+H15</f>
         <v>4146987.58</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -7616,6 +7598,26 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7623,24 +7625,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173147DD-84D5-4EF1-B05D-B79BDAC94B57}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -7648,7 +7650,7 @@
         <v>251.56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -7656,12 +7658,12 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>1</f>
         <v>1</v>
@@ -7734,7 +7736,7 @@
         <v>0.36824714210163101</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>A8+1</f>
         <v>2</v>
@@ -7775,7 +7777,7 @@
         <v>0.36811614580106561</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ref="A10:A14" si="3">A9+1</f>
         <v>3</v>
@@ -7816,7 +7818,7 @@
         <v>0.3478147051665697</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7857,7 +7859,7 @@
         <v>0.36785039308591339</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7898,7 +7900,7 @@
         <v>0.36768018364565225</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7939,7 +7941,7 @@
         <v>0.36757277059653098</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7979,13 +7981,23 @@
         <f t="shared" si="2"/>
         <v>0.36748893864901161</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f>I14-I18</f>
+        <v>1.5034380476066644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f>I14-I19</f>
+        <v>1.5158956188093953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -8014,7 +8026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -8053,7 +8065,7 @@
         <v>0.34892339101247588</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>

--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\3rd quarter\SVV flight\FlightDynamicsSVV\Measurement Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776E743-B9DF-4426-B594-A0CE8F9A798F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9000B5BF-9C75-405F-90A2-B1A32DBF1B65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Weight&amp;Balance" sheetId="2" r:id="rId2"/>
+    <sheet name="Flight Weight&amp;Balance" sheetId="2" r:id="rId2"/>
     <sheet name="Sartaj Moved Weight and Balance" sheetId="4" r:id="rId3"/>
     <sheet name="Changing CG" sheetId="3" r:id="rId4"/>
     <sheet name="Reference Data" sheetId="6" r:id="rId5"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2421,21 +2419,21 @@
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2463,13 +2461,13 @@
         <v>0.67708333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2499,7 +2497,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2526,7 +2524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2535,7 +2533,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2544,7 +2542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2553,7 +2551,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2562,7 +2560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2570,12 +2568,12 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2583,7 +2581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2615,7 +2613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -2644,7 +2642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2674,7 +2672,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2734,7 +2732,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>-9.8000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2794,7 +2792,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -2840,23 +2838,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2933,7 +2931,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2949,7 +2947,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2965,7 +2963,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2981,7 +2979,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2997,7 +2995,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -3013,7 +3011,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -3029,17 +3027,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3165,7 +3163,7 @@
         <v>-14.2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3204,7 +3202,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3243,7 +3241,7 @@
         <v>-15.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -3282,7 +3280,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -3360,7 +3358,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -3399,23 +3397,23 @@
         <v>-9.1999999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -3427,7 +3425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3468,7 +3466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -3506,7 +3504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3584,17 +3582,17 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -3605,7 +3603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -3616,7 +3614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3828,23 +3826,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6141737-6818-4B76-A9F7-A606D8A3676F}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
@@ -3858,7 +3856,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -3868,7 +3866,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
@@ -3892,7 +3890,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3902,7 +3900,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -3924,7 +3922,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -3944,7 +3942,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>2672972.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3993,7 +3991,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4015,7 +4013,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -4035,7 +4033,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -4061,7 +4059,7 @@
         <v>359443.66500000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -4081,7 +4079,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -4103,7 +4101,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
@@ -4115,7 +4113,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -4136,7 +4134,7 @@
         <v>3032415.915</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -4154,7 +4152,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -4174,7 +4172,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>338</v>
       </c>
@@ -4189,7 +4187,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -4212,13 +4210,13 @@
         <v>1170550</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
@@ -4226,13 +4224,13 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
@@ -4249,7 +4247,7 @@
         <v>4202965.915</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="11"/>
@@ -4305,19 +4303,19 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
@@ -4331,7 +4329,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -4341,7 +4339,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
@@ -4365,7 +4363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4375,7 +4373,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -4397,7 +4395,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -4417,7 +4415,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -4446,7 +4444,7 @@
         <v>2672972.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4466,7 +4464,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4488,7 +4486,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -4508,7 +4506,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>329318.95500000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -4554,7 +4552,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -4576,7 +4574,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
@@ -4588,7 +4586,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -4609,7 +4607,7 @@
         <v>3002291.2050000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -4627,7 +4625,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -4647,7 +4645,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>338</v>
       </c>
@@ -4662,7 +4660,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -4685,13 +4683,13 @@
         <v>1170550</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
@@ -4699,13 +4697,13 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
@@ -4722,7 +4720,7 @@
         <v>4172841.2050000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="11"/>
@@ -4775,21 +4773,21 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -4797,7 +4795,7 @@
         <v>251.56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -4805,12 +4803,12 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -4842,7 +4840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>1</f>
         <v>1</v>
@@ -4852,7 +4850,7 @@
         <v>778</v>
       </c>
       <c r="C8">
-        <f>'Weight&amp;Balance'!G$19-B8</f>
+        <f>'Flight Weight&amp;Balance'!G$19-B8</f>
         <v>3322</v>
       </c>
       <c r="D8">
@@ -4875,7 +4873,7 @@
         <v>947361.70000000007</v>
       </c>
       <c r="I8">
-        <f>('Weight&amp;Balance'!H$15+H8)/('Weight&amp;Balance'!G$15+'Changing CG'!C8)</f>
+        <f>('Flight Weight&amp;Balance'!H$15+H8)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C8)</f>
         <v>281.00217577032794</v>
       </c>
       <c r="J8">
@@ -4883,7 +4881,7 @@
         <v>0.36357342270101178</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>A8+1</f>
         <v>2</v>
@@ -4893,7 +4891,7 @@
         <v>797</v>
       </c>
       <c r="C9">
-        <f>'Weight&amp;Balance'!G$19-B9</f>
+        <f>'Flight Weight&amp;Balance'!G$19-B9</f>
         <v>3303</v>
       </c>
       <c r="D9">
@@ -4916,7 +4914,7 @@
         <v>941921.05000000016</v>
       </c>
       <c r="I9">
-        <f>('Weight&amp;Balance'!H$15+H9)/('Weight&amp;Balance'!G$15+'Changing CG'!C9)</f>
+        <f>('Flight Weight&amp;Balance'!H$15+H9)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C9)</f>
         <v>280.9949917985266</v>
       </c>
       <c r="J9">
@@ -4924,7 +4922,7 @@
         <v>0.36348470978669539</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ref="A10:A14" si="3">A9+1</f>
         <v>3</v>
@@ -4934,7 +4932,7 @@
         <v>826</v>
       </c>
       <c r="C10">
-        <f>'Weight&amp;Balance'!G$19-B10</f>
+        <f>'Flight Weight&amp;Balance'!G$19-B10</f>
         <v>3274</v>
       </c>
       <c r="D10">
@@ -4957,7 +4955,7 @@
         <v>933630.68</v>
       </c>
       <c r="I10">
-        <f>('Weight&amp;Balance'!H$15+H10)/('Weight&amp;Balance'!G$15+'Changing CG'!C10)</f>
+        <f>('Flight Weight&amp;Balance'!H$15+H10)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C10)</f>
         <v>280.98496578059911</v>
       </c>
       <c r="J10">
@@ -4965,7 +4963,7 @@
         <v>0.36336090121757358</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4975,7 +4973,7 @@
         <v>839</v>
       </c>
       <c r="C11">
-        <f>'Weight&amp;Balance'!G$19-B11</f>
+        <f>'Flight Weight&amp;Balance'!G$19-B11</f>
         <v>3261</v>
       </c>
       <c r="D11">
@@ -4998,7 +4996,7 @@
         <v>929915.02</v>
       </c>
       <c r="I11">
-        <f>('Weight&amp;Balance'!H$15+H11)/('Weight&amp;Balance'!G$15+'Changing CG'!C11)</f>
+        <f>('Flight Weight&amp;Balance'!H$15+H11)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C11)</f>
         <v>280.98050851664328</v>
       </c>
       <c r="J11">
@@ -5006,7 +5004,7 @@
         <v>0.36330585967699774</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5016,7 +5014,7 @@
         <v>857</v>
       </c>
       <c r="C12">
-        <f>'Weight&amp;Balance'!G$19-B12</f>
+        <f>'Flight Weight&amp;Balance'!G$19-B12</f>
         <v>3243</v>
       </c>
       <c r="D12">
@@ -5039,7 +5037,7 @@
         <v>924770.26</v>
       </c>
       <c r="I12">
-        <f>('Weight&amp;Balance'!H$15+H12)/('Weight&amp;Balance'!G$15+'Changing CG'!C12)</f>
+        <f>('Flight Weight&amp;Balance'!H$15+H12)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C12)</f>
         <v>280.97432333603149</v>
       </c>
       <c r="J12">
@@ -5047,7 +5045,7 @@
         <v>0.3632294805634908</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -5057,7 +5055,7 @@
         <v>872</v>
       </c>
       <c r="C13">
-        <f>'Weight&amp;Balance'!G$19-B13</f>
+        <f>'Flight Weight&amp;Balance'!G$19-B13</f>
         <v>3228</v>
       </c>
       <c r="D13">
@@ -5080,7 +5078,7 @@
         <v>920482.96</v>
       </c>
       <c r="I13">
-        <f>('Weight&amp;Balance'!H$15+H13)/('Weight&amp;Balance'!G$15+'Changing CG'!C13)</f>
+        <f>('Flight Weight&amp;Balance'!H$15+H13)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C13)</f>
         <v>280.96915692880702</v>
       </c>
       <c r="J13">
@@ -5088,7 +5086,7 @@
         <v>0.36316568200552013</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5098,7 +5096,7 @@
         <v>889</v>
       </c>
       <c r="C14">
-        <f>'Weight&amp;Balance'!G$19-B14</f>
+        <f>'Flight Weight&amp;Balance'!G$19-B14</f>
         <v>3211</v>
       </c>
       <c r="D14">
@@ -5121,7 +5119,7 @@
         <v>915624.0199999999</v>
       </c>
       <c r="I14">
-        <f>('Weight&amp;Balance'!H$15+H14)/('Weight&amp;Balance'!G$15+'Changing CG'!C14)</f>
+        <f>('Flight Weight&amp;Balance'!H$15+H14)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C14)</f>
         <v>280.96328833316733</v>
       </c>
       <c r="J14">
@@ -5129,12 +5127,12 @@
         <v>0.36309321231374814</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -5166,7 +5164,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5205,7 +5203,7 @@
         <v>0.33647850769930809</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5257,21 +5255,21 @@
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5285,7 +5283,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5299,13 +5297,13 @@
         <v>0.67708333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -5313,7 +5311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5324,7 +5322,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5353,7 +5351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5362,7 +5360,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5371,7 +5369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5380,7 +5378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -5389,7 +5387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -5406,12 +5404,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -5451,7 +5449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -5480,7 +5478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5510,7 +5508,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -5540,7 +5538,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -5570,7 +5568,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5600,7 +5598,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -5630,7 +5628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5660,7 +5658,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -5676,23 +5674,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5724,7 +5722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -5753,7 +5751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5769,7 +5767,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5785,7 +5783,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5801,7 +5799,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -5817,7 +5815,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -5833,7 +5831,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -5849,7 +5847,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5865,17 +5863,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -5883,7 +5881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -5962,7 +5960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6001,7 +5999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -6040,7 +6038,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -6079,7 +6077,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6118,7 +6116,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -6157,7 +6155,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -6196,7 +6194,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -6235,23 +6233,23 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -6263,7 +6261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -6304,7 +6302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -6342,7 +6340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -6381,7 +6379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -6420,17 +6418,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -6441,7 +6439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -6452,7 +6450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -6472,7 +6470,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -6683,19 +6681,19 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
@@ -6709,7 +6707,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -6719,7 +6717,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
@@ -6743,7 +6741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -6753,7 +6751,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -6775,7 +6773,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -6795,7 +6793,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -6824,7 +6822,7 @@
         <v>2672972.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -6844,7 +6842,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -6866,7 +6864,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -6886,7 +6884,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -6912,7 +6910,7 @@
         <v>324157.05000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -6932,7 +6930,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -6954,7 +6952,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
@@ -6966,7 +6964,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -6987,7 +6985,7 @@
         <v>2997129.3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -7005,7 +7003,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -7025,7 +7023,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>338</v>
       </c>
@@ -7040,7 +7038,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -7064,13 +7062,13 @@
         <v>1170550</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
@@ -7078,13 +7076,13 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
@@ -7101,7 +7099,7 @@
         <v>4167679.3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="11"/>
@@ -7157,19 +7155,19 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
@@ -7183,7 +7181,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -7193,7 +7191,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>66</v>
       </c>
@@ -7217,7 +7215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -7227,7 +7225,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>72</v>
       </c>
@@ -7249,7 +7247,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -7269,7 +7267,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>75</v>
       </c>
@@ -7298,7 +7296,7 @@
         <v>2672972.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -7318,7 +7316,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -7340,7 +7338,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -7360,7 +7358,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -7386,7 +7384,7 @@
         <v>303465.33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
@@ -7406,7 +7404,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
@@ -7428,7 +7426,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
@@ -7440,7 +7438,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -7461,7 +7459,7 @@
         <v>2976437.58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -7479,7 +7477,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -7499,7 +7497,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>338</v>
       </c>
@@ -7514,7 +7512,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>79</v>
       </c>
@@ -7538,13 +7536,13 @@
         <v>1170550</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="16" t="s">
         <v>90</v>
       </c>
@@ -7552,13 +7550,13 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="11" t="s">
         <v>91</v>
       </c>
@@ -7575,7 +7573,7 @@
         <v>4146987.58</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
       <c r="G24" s="11"/>
@@ -7627,22 +7625,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173147DD-84D5-4EF1-B05D-B79BDAC94B57}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -7650,7 +7648,7 @@
         <v>251.56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -7658,12 +7656,12 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -7695,7 +7693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>1</f>
         <v>1</v>
@@ -7736,7 +7734,7 @@
         <v>0.36824714210163101</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>A8+1</f>
         <v>2</v>
@@ -7777,7 +7775,7 @@
         <v>0.36811614580106561</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ref="A10:A14" si="3">A9+1</f>
         <v>3</v>
@@ -7818,7 +7816,7 @@
         <v>0.3478147051665697</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7859,7 +7857,7 @@
         <v>0.36785039308591339</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7900,7 +7898,7 @@
         <v>0.36768018364565225</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7941,7 +7939,7 @@
         <v>0.36757277059653098</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7986,18 +7984,18 @@
         <v>1.5034380476066644</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L15">
         <f>I14-I19</f>
         <v>1.5158956188093953</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -8026,7 +8024,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -8065,7 +8063,7 @@
         <v>0.34892339101247588</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>

--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9000B5BF-9C75-405F-90A2-B1A32DBF1B65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCD6DA-1582-4BA7-9FCF-19DC556C9F08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
@@ -594,29 +594,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2415,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
@@ -3826,7 +3826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6141737-6818-4B76-A9F7-A606D8A3676F}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5:H6"/>
     </sheetView>
   </sheetViews>
@@ -3843,62 +3843,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -3915,12 +3915,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>23108.400000000001</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -3937,10 +3937,10 @@
         <f t="shared" si="0"/>
         <v>29463.21</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3957,16 +3957,16 @@
         <f t="shared" si="0"/>
         <v>38221.47</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>9165</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="13">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -3986,10 +3986,10 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -4006,12 +4006,12 @@
         <f t="shared" si="0"/>
         <v>54792.045000000006</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -4028,10 +4028,10 @@
         <f t="shared" si="0"/>
         <v>35421.120000000003</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -4048,13 +4048,13 @@
         <f t="shared" si="0"/>
         <v>51438.240000000005</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>C19</f>
         <v>1675.8000000000002</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="18">
         <f>D19</f>
         <v>359443.66500000004</v>
       </c>
@@ -4074,10 +4074,10 @@
         <f t="shared" si="0"/>
         <v>62868.960000000006</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -4094,42 +4094,42 @@
         <f t="shared" si="0"/>
         <v>32986.800000000003</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="16">
         <f>H15/G15</f>
         <v>279.72252186185523</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="13">
         <f>G7+G11</f>
         <v>10840.8</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="13">
         <f>H11+H7</f>
         <v>3032415.915</v>
       </c>
@@ -4147,10 +4147,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -4165,12 +4165,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -4182,10 +4182,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -4200,58 +4200,531 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>359443.66500000004</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
         <v>4100</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="18">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="16">
         <f>H23/G23</f>
         <v>281.30795640126365</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="13">
         <f>G15+G19</f>
         <v>14940.8</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="13">
         <f>H19+H15</f>
         <v>4202965.915</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="5">
+        <f>80*2.205</f>
+        <v>176.4</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>23108.400000000001</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="5">
+        <f>2.205*102</f>
+        <v>224.91</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>29463.21</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>38221.47</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="13">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="13">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="13">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="5">
+        <f>2.205*66</f>
+        <v>145.53</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>31143.420000000002</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="5">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>54792.045000000006</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="5">
+        <f>2.205*64</f>
+        <v>141.12</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>35421.120000000003</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="5">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>51438.240000000005</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
+        <f>C19</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="H11" s="18">
+        <f>D19</f>
+        <v>329318.95500000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12*C12</f>
+        <v>32744.250000000004</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="5">
+        <f>2.205*88</f>
+        <v>194.04000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>32986.800000000003</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="16">
+        <f>H15/G15</f>
+        <v>276.94369465353111</v>
+      </c>
+      <c r="G15" s="13">
+        <f>G7+G11</f>
+        <v>10840.8</v>
+      </c>
+      <c r="H15" s="13">
+        <f>H11+H7</f>
+        <v>3002291.2050000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>329318.95500000002</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
+        <v>4100</v>
+      </c>
+      <c r="H19" s="18">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="16">
+        <f>H23/G23</f>
+        <v>279.29168484953954</v>
+      </c>
+      <c r="G23" s="13">
+        <f>G15+G19</f>
+        <v>14940.8</v>
+      </c>
+      <c r="H23" s="13">
+        <f>H19+H15</f>
+        <v>4172841.2050000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4295,485 +4768,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5">
-        <v>131</v>
-      </c>
-      <c r="C5" s="5">
-        <f>80*2.205</f>
-        <v>176.4</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>23108.400000000001</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="5">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5">
-        <f>2.205*102</f>
-        <v>224.91</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>29463.21</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5">
-        <v>214</v>
-      </c>
-      <c r="C7" s="5">
-        <f>2.205*81</f>
-        <v>178.60500000000002</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>38221.47</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="11">
-        <v>291.64999999999998</v>
-      </c>
-      <c r="G7" s="11">
-        <v>9165</v>
-      </c>
-      <c r="H7" s="11">
-        <f>G7*F7</f>
-        <v>2672972.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5">
-        <v>214</v>
-      </c>
-      <c r="C8" s="5">
-        <f>2.205*66</f>
-        <v>145.53</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>31143.420000000002</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5">
-        <v>251</v>
-      </c>
-      <c r="C9" s="5">
-        <f>2.205*99</f>
-        <v>218.29500000000002</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>54792.045000000006</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="5">
-        <v>251</v>
-      </c>
-      <c r="C10" s="5">
-        <f>2.205*64</f>
-        <v>141.12</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>35421.120000000003</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="5">
-        <v>288</v>
-      </c>
-      <c r="C11" s="5">
-        <f>2.205*81</f>
-        <v>178.60500000000002</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>51438.240000000005</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
-        <f>C19</f>
-        <v>1675.8000000000002</v>
-      </c>
-      <c r="H11" s="15">
-        <f>D19</f>
-        <v>329318.95500000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="5">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5">
-        <f>2.205*99</f>
-        <v>218.29500000000002</v>
-      </c>
-      <c r="D12" s="5">
-        <f>B12*C12</f>
-        <v>32744.250000000004</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="5">
-        <v>170</v>
-      </c>
-      <c r="C13" s="5">
-        <f>2.205*88</f>
-        <v>194.04000000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>32986.800000000003</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="12">
-        <f>H15/G15</f>
-        <v>276.94369465353111</v>
-      </c>
-      <c r="G15" s="11">
-        <f>G7+G11</f>
-        <v>10840.8</v>
-      </c>
-      <c r="H15" s="11">
-        <f>H11+H7</f>
-        <v>3002291.2050000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="5">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5">
-        <v>321</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>338</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>1675.8000000000002</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>329318.95500000002</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
-        <v>4100</v>
-      </c>
-      <c r="H19" s="15">
-        <f>11705.5*100</f>
-        <v>1170550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="12">
-        <f>H23/G23</f>
-        <v>279.29168484953954</v>
-      </c>
-      <c r="G23" s="11">
-        <f>G15+G19</f>
-        <v>14940.8</v>
-      </c>
-      <c r="H23" s="11">
-        <f>H19+H15</f>
-        <v>4172841.2050000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C39D154-1F26-4105-A8FA-B8B6FE50AD62}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5195,12 +5195,12 @@
         <v>909050.87999999989</v>
       </c>
       <c r="I18">
-        <f>('Sartaj Moved Weight and Balance'!H$15+'Changing CG'!H18)/('Sartaj Moved Weight and Balance'!G$15+'Changing CG'!C18)</f>
-        <v>278.80802955348997</v>
+        <f>('Flight Weight&amp;Balance'!H$15+'Changing CG'!H18)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C18)</f>
+        <v>280.95537715271445</v>
       </c>
       <c r="J18">
         <f>(I18-B$1)/B$2</f>
-        <v>0.33647850769930809</v>
+        <v>0.36299551929753576</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -6694,62 +6694,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -6766,12 +6766,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -6788,10 +6788,10 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -6808,16 +6808,16 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>9165</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="13">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -6837,10 +6837,10 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -6857,12 +6857,12 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -6879,10 +6879,10 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -6899,13 +6899,13 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="18">
         <f>D19</f>
         <v>324157.05000000005</v>
       </c>
@@ -6925,10 +6925,10 @@
         <f t="shared" si="0"/>
         <v>43182.720000000001</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -6945,42 +6945,42 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="16">
         <f>H15/G15</f>
         <v>280.17165733035131</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="13">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="13">
         <f>H11+H7</f>
         <v>2997129.3</v>
       </c>
@@ -6998,10 +6998,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -7016,12 +7016,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -7033,10 +7033,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -7051,62 +7051,82 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>324157.05000000005</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="18">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="16">
         <f>H23/G23</f>
         <v>282.60290659926528</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="13">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="13">
         <f>H19+H15</f>
         <v>4167679.3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -7122,26 +7142,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7168,62 +7168,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7240,12 +7240,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -7262,10 +7262,10 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -7282,16 +7282,16 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="13">
         <v>9165</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="13">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -7311,10 +7311,10 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -7331,12 +7331,12 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -7353,10 +7353,10 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -7373,13 +7373,13 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="18">
         <f>D19</f>
         <v>303465.33</v>
       </c>
@@ -7399,10 +7399,10 @@
         <f t="shared" si="0"/>
         <v>22491</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -7419,42 +7419,42 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="16">
         <f>H15/G15</f>
         <v>278.23739527318361</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="13">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="13">
         <f>H11+H7</f>
         <v>2976437.58</v>
       </c>
@@ -7472,10 +7472,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -7490,12 +7490,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -7507,10 +7507,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -7525,62 +7525,82 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>303465.33</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="18">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="16">
         <f>H23/G23</f>
         <v>281.19983793835894</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="13">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="13">
         <f>H19+H15</f>
         <v>4146987.58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -7596,26 +7616,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7625,7 +7625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173147DD-84D5-4EF1-B05D-B79BDAC94B57}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="L14">
         <f>I14-I18</f>
-        <v>1.5034380476066644</v>
+        <v>1.1226075926742851E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -8055,12 +8055,12 @@
         <v>903621.44</v>
       </c>
       <c r="I18">
-        <f>('Reference Moved Weight&amp;Balance'!H$15+H18)/('Reference Moved Weight&amp;Balance'!G$15+'Changing CG Reference'!C18)</f>
-        <v>279.8158162041903</v>
+        <f>('Reference Weight&amp;Balance'!H$15+H18)/('Reference Weight&amp;Balance'!G$15+'Changing CG Reference'!C18)</f>
+        <v>281.30802817587022</v>
       </c>
       <c r="J18">
         <f>(I18-B$1)/B$2</f>
-        <v>0.34892339101247588</v>
+        <v>0.3673503108899755</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">

--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCD6DA-1582-4BA7-9FCF-19DC556C9F08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA6E229-55D3-4BFF-8637-3151EA371E75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Flight Weight&amp;Balance" sheetId="2" r:id="rId2"/>
-    <sheet name="Sartaj Moved Weight and Balance" sheetId="4" r:id="rId3"/>
-    <sheet name="Changing CG" sheetId="3" r:id="rId4"/>
-    <sheet name="Reference Data" sheetId="6" r:id="rId5"/>
-    <sheet name="Reference Weight&amp;Balance" sheetId="8" r:id="rId6"/>
-    <sheet name="Reference Moved Weight&amp;Balance" sheetId="10" r:id="rId7"/>
-    <sheet name="Changing CG Reference" sheetId="9" r:id="rId8"/>
+    <sheet name="Flight Mass and CG for overleaf" sheetId="11" r:id="rId2"/>
+    <sheet name="Flight Weight&amp;Balance" sheetId="2" r:id="rId3"/>
+    <sheet name="Sartaj Moved Weight and Balance" sheetId="4" r:id="rId4"/>
+    <sheet name="Changing CG" sheetId="3" r:id="rId5"/>
+    <sheet name="Reference Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Reference Weight&amp;Balance" sheetId="8" r:id="rId7"/>
+    <sheet name="Reference Moved Weight&amp;Balance" sheetId="10" r:id="rId8"/>
+    <sheet name="Changing CG Reference" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="145">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -460,15 +461,96 @@
   <si>
     <t>8.2</t>
   </si>
+  <si>
+    <t>Total Mass [lbs]</t>
+  </si>
+  <si>
+    <t>Total Mass [kgs]</t>
+  </si>
+  <si>
+    <t>Fuel Used [lbs]</t>
+  </si>
+  <si>
+    <t>CL-CD Measurements</t>
+  </si>
+  <si>
+    <t>F. Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremaining Upper </t>
+  </si>
+  <si>
+    <t>Stationary measurements Elevator Curve</t>
+  </si>
+  <si>
+    <t>Shift in center of Gravity</t>
+  </si>
+  <si>
+    <t>Stationary  Measurements CL-CD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">X </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cg Datum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [inches]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [MAC]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +604,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -531,7 +627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -566,11 +662,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -594,6 +892,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,6 +925,148 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2416,7 +2865,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3823,479 +4272,968 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6141737-6818-4B76-A9F7-A606D8A3676F}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA54403-6CD7-4AB9-BDFF-05AB6878CE42}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5">
-        <v>131</v>
-      </c>
-      <c r="C5" s="5">
-        <f>80*2.205</f>
-        <v>176.4</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>23108.400000000001</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="5">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5">
-        <f>2.205*102</f>
-        <v>224.91</v>
-      </c>
-      <c r="D6" s="5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25">
+        <f>'Flight Data'!I28</f>
+        <v>475</v>
+      </c>
+      <c r="D3" s="26">
+        <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C3</f>
+        <v>14465.8</v>
+      </c>
+      <c r="E3" s="27">
+        <f>0.453592*D3</f>
+        <v>6561.5711535999999</v>
+      </c>
+      <c r="F3" s="28">
+        <f>'Changing CG'!I9</f>
+        <v>281.11773389650074</v>
+      </c>
+      <c r="G3" s="29">
+        <f>'Changing CG'!J9</f>
+        <v>0.36500041857867044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <f>'Flight Data'!I29</f>
+        <v>524</v>
+      </c>
+      <c r="D4" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C4</f>
+        <v>14416.8</v>
+      </c>
+      <c r="E4" s="33">
+        <f>0.453592*D4</f>
+        <v>6539.3451455999993</v>
+      </c>
+      <c r="F4" s="34">
+        <f>'Changing CG'!I10</f>
+        <v>281.09869006991846</v>
+      </c>
+      <c r="G4" s="35">
+        <f>'Changing CG'!J10</f>
+        <v>0.36476525154258405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31">
+        <v>3</v>
+      </c>
+      <c r="C5" s="31">
+        <f>'Flight Data'!I30</f>
+        <v>553</v>
+      </c>
+      <c r="D5" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C5</f>
+        <v>14387.8</v>
+      </c>
+      <c r="E5" s="33">
+        <f>0.453592*D5</f>
+        <v>6526.1909775999993</v>
+      </c>
+      <c r="F5" s="34">
+        <f>'Changing CG'!I11</f>
+        <v>281.08744040089522</v>
+      </c>
+      <c r="G5" s="35">
+        <f>'Changing CG'!J11</f>
+        <v>0.3646263324388147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31">
+        <f>'Flight Data'!I31</f>
+        <v>577</v>
+      </c>
+      <c r="D6" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C6</f>
+        <v>14363.8</v>
+      </c>
+      <c r="E6" s="33">
+        <f>0.453592*D6</f>
+        <v>6515.3047695999994</v>
+      </c>
+      <c r="F6" s="34">
+        <f>'Changing CG'!I12</f>
+        <v>281.07809597738765</v>
+      </c>
+      <c r="G6" s="35">
+        <f>'Changing CG'!J12</f>
+        <v>0.36451094069384593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="31">
+        <f>'Flight Data'!I32</f>
+        <v>598</v>
+      </c>
+      <c r="D7" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C7</f>
+        <v>14342.8</v>
+      </c>
+      <c r="E7" s="33">
+        <f>0.453592*D7</f>
+        <v>6505.7793376</v>
+      </c>
+      <c r="F7" s="34">
+        <f>'Changing CG'!I13</f>
+        <v>281.06989395376075</v>
+      </c>
+      <c r="G7" s="35">
+        <f>'Changing CG'!J13</f>
+        <v>0.36440965613436344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37">
+        <f>'Flight Data'!I33</f>
+        <v>640</v>
+      </c>
+      <c r="D8" s="38">
+        <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C8</f>
+        <v>14300.8</v>
+      </c>
+      <c r="E8" s="39">
+        <f>0.453592*D8</f>
+        <v>6486.7284735999992</v>
+      </c>
+      <c r="F8" s="40">
+        <f>'Changing CG'!I14</f>
+        <v>281.0541169025509</v>
+      </c>
+      <c r="G8" s="41">
+        <f>'Changing CG'!J14</f>
+        <v>0.36421482961905283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25">
+        <f>'Flight Data'!L59</f>
+        <v>778</v>
+      </c>
+      <c r="D9" s="26">
+        <f>'Flight Weight&amp;Balance'!H$23-C9</f>
+        <v>14162.8</v>
+      </c>
+      <c r="E9" s="27">
+        <f>D9*0.453592</f>
+        <v>6424.1327775999998</v>
+      </c>
+      <c r="F9" s="28">
+        <f>'Changing CG'!I18</f>
+        <v>281.00217577032794</v>
+      </c>
+      <c r="G9" s="29">
+        <f>'Changing CG'!J18</f>
+        <v>0.36357342270101178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31">
+        <f>'Flight Data'!L60</f>
+        <v>797</v>
+      </c>
+      <c r="D10" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23-C10</f>
+        <v>14143.8</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" ref="E10:E15" si="0">D10*0.453592</f>
+        <v>6415.5145295999992</v>
+      </c>
+      <c r="F10" s="34">
+        <f>'Changing CG'!I19</f>
+        <v>280.9949917985266</v>
+      </c>
+      <c r="G10" s="35">
+        <f>'Changing CG'!J19</f>
+        <v>0.36348470978669539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31">
+        <v>3</v>
+      </c>
+      <c r="C11" s="31">
+        <f>'Flight Data'!L61</f>
+        <v>826</v>
+      </c>
+      <c r="D11" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23-C11</f>
+        <v>14114.8</v>
+      </c>
+      <c r="E11" s="33">
         <f t="shared" si="0"/>
-        <v>29463.21</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5">
-        <v>214</v>
-      </c>
-      <c r="C7" s="5">
-        <f>2.205*81</f>
-        <v>178.60500000000002</v>
-      </c>
-      <c r="D7" s="5">
+        <v>6402.3603616</v>
+      </c>
+      <c r="F11" s="34">
+        <f>'Changing CG'!I20</f>
+        <v>280.98496578059911</v>
+      </c>
+      <c r="G11" s="35">
+        <f>'Changing CG'!J20</f>
+        <v>0.36336090121757358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31">
+        <v>4</v>
+      </c>
+      <c r="C12" s="31">
+        <f>'Flight Data'!L62</f>
+        <v>839</v>
+      </c>
+      <c r="D12" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23-C12</f>
+        <v>14101.8</v>
+      </c>
+      <c r="E12" s="33">
         <f t="shared" si="0"/>
-        <v>38221.47</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="13">
-        <v>291.64999999999998</v>
-      </c>
-      <c r="G7" s="13">
-        <v>9165</v>
-      </c>
-      <c r="H7" s="13">
-        <f>G7*F7</f>
-        <v>2672972.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5">
-        <v>214</v>
-      </c>
-      <c r="C8" s="5">
-        <f>2.205*66</f>
-        <v>145.53</v>
-      </c>
-      <c r="D8" s="5">
+        <v>6396.4636655999993</v>
+      </c>
+      <c r="F12" s="34">
+        <f>'Changing CG'!I21</f>
+        <v>280.98050851664328</v>
+      </c>
+      <c r="G12" s="35">
+        <f>'Changing CG'!J21</f>
+        <v>0.36330585967699774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31">
+        <v>5</v>
+      </c>
+      <c r="C13" s="31">
+        <f>'Flight Data'!L63</f>
+        <v>857</v>
+      </c>
+      <c r="D13" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23-C13</f>
+        <v>14083.8</v>
+      </c>
+      <c r="E13" s="33">
         <f t="shared" si="0"/>
-        <v>31143.420000000002</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5">
-        <v>251</v>
-      </c>
-      <c r="C9" s="5">
-        <f>2.205*99</f>
-        <v>218.29500000000002</v>
-      </c>
-      <c r="D9" s="5">
+        <v>6388.2990095999994</v>
+      </c>
+      <c r="F13" s="34">
+        <f>'Changing CG'!I22</f>
+        <v>280.97432333603149</v>
+      </c>
+      <c r="G13" s="35">
+        <f>'Changing CG'!J22</f>
+        <v>0.3632294805634908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31">
+        <v>6</v>
+      </c>
+      <c r="C14" s="31">
+        <f>'Flight Data'!L64</f>
+        <v>872</v>
+      </c>
+      <c r="D14" s="32">
+        <f>'Flight Weight&amp;Balance'!H$23-C14</f>
+        <v>14068.8</v>
+      </c>
+      <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>54792.045000000006</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="5">
-        <v>251</v>
-      </c>
-      <c r="C10" s="5">
-        <f>2.205*64</f>
-        <v>141.12</v>
-      </c>
-      <c r="D10" s="5">
+        <v>6381.4951295999999</v>
+      </c>
+      <c r="F14" s="34">
+        <f>'Changing CG'!I23</f>
+        <v>280.96915692880702</v>
+      </c>
+      <c r="G14" s="35">
+        <f>'Changing CG'!J23</f>
+        <v>0.36316568200552013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37">
+        <v>7</v>
+      </c>
+      <c r="C15" s="37">
+        <f>'Flight Data'!L65</f>
+        <v>889</v>
+      </c>
+      <c r="D15" s="38">
+        <f>'Flight Weight&amp;Balance'!H$23-C15</f>
+        <v>14051.8</v>
+      </c>
+      <c r="E15" s="39">
         <f t="shared" si="0"/>
-        <v>35421.120000000003</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="5">
-        <v>288</v>
-      </c>
-      <c r="C11" s="5">
-        <f>2.205*81</f>
-        <v>178.60500000000002</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>51438.240000000005</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
-        <f>C19</f>
-        <v>1675.8000000000002</v>
-      </c>
-      <c r="H11" s="18">
-        <f>D19</f>
-        <v>359443.66500000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="5">
-        <v>288</v>
-      </c>
-      <c r="C12" s="5">
-        <f>2.205*99</f>
-        <v>218.29500000000002</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>62868.960000000006</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="5">
-        <v>170</v>
-      </c>
-      <c r="C13" s="5">
-        <f>2.205*88</f>
-        <v>194.04000000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>32986.800000000003</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="16">
-        <f>H15/G15</f>
-        <v>279.72252186185523</v>
-      </c>
-      <c r="G15" s="13">
-        <f>G7+G11</f>
-        <v>10840.8</v>
-      </c>
-      <c r="H15" s="13">
-        <f>H11+H7</f>
-        <v>3032415.915</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="5">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5">
-        <v>321</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>338</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>1675.8000000000002</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>359443.66500000004</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
-        <v>4100</v>
-      </c>
-      <c r="H19" s="18">
-        <f>11705.5*100</f>
-        <v>1170550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="16">
-        <f>H23/G23</f>
-        <v>281.30795640126365</v>
-      </c>
-      <c r="G23" s="13">
-        <f>G15+G19</f>
-        <v>14940.8</v>
-      </c>
-      <c r="H23" s="13">
-        <f>H19+H15</f>
-        <v>4202965.915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+        <v>6373.7840655999998</v>
+      </c>
+      <c r="F15" s="40">
+        <f>'Changing CG'!I24</f>
+        <v>280.96328833316733</v>
+      </c>
+      <c r="G15" s="41">
+        <f>'Changing CG'!J24</f>
+        <v>0.36309321231374814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25">
+        <f>'Changing CG'!B28</f>
+        <v>912</v>
+      </c>
+      <c r="D16" s="26">
+        <f>'Flight Weight&amp;Balance'!H$23-'Flight Mass and CG for overleaf'!C16</f>
+        <v>14028.8</v>
+      </c>
+      <c r="E16" s="27">
+        <f>D16*0.453592</f>
+        <v>6363.3514495999998</v>
+      </c>
+      <c r="F16" s="28">
+        <f>'Changing CG'!I28</f>
+        <v>280.95537715271445</v>
+      </c>
+      <c r="G16" s="29">
+        <f>'Changing CG'!J28</f>
+        <v>0.36299551929753576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37">
+        <v>2</v>
+      </c>
+      <c r="C17" s="37">
+        <f>'Changing CG'!B29</f>
+        <v>944</v>
+      </c>
+      <c r="D17" s="38">
+        <f>'Flight Weight&amp;Balance'!H$23-'Flight Mass and CG for overleaf'!C17</f>
+        <v>13996.8</v>
+      </c>
+      <c r="E17" s="39">
+        <f>D17*0.453592</f>
+        <v>6348.8365055999993</v>
+      </c>
+      <c r="F17" s="40">
+        <f>'Changing CG'!I29</f>
+        <v>278.79213570244627</v>
+      </c>
+      <c r="G17" s="41">
+        <f>'Changing CG'!J29</f>
+        <v>0.33628223885460939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6141737-6818-4B76-A9F7-A606D8A3676F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="51">
+        <v>131</v>
+      </c>
+      <c r="C5" s="51">
+        <f>80*2.205</f>
+        <v>176.4</v>
+      </c>
+      <c r="D5" s="51">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>23108.400000000001</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="52">
+        <v>131</v>
+      </c>
+      <c r="C6" s="52">
+        <f>2.205*102</f>
+        <v>224.91</v>
+      </c>
+      <c r="D6" s="52">
+        <f t="shared" si="0"/>
+        <v>29463.21</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="52">
+        <v>214</v>
+      </c>
+      <c r="C7" s="52">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D7" s="52">
+        <f t="shared" si="0"/>
+        <v>38221.47</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="45">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="H7" s="56">
+        <v>9165</v>
+      </c>
+      <c r="I7" s="56">
+        <f>H7*G7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="52">
+        <v>214</v>
+      </c>
+      <c r="C8" s="52">
+        <f>2.205*66</f>
+        <v>145.53</v>
+      </c>
+      <c r="D8" s="52">
+        <f t="shared" si="0"/>
+        <v>31143.420000000002</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="52">
+        <v>251</v>
+      </c>
+      <c r="C9" s="52">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D9" s="52">
+        <f t="shared" si="0"/>
+        <v>54792.045000000006</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="52">
+        <v>251</v>
+      </c>
+      <c r="C10" s="52">
+        <f>2.205*64</f>
+        <v>141.12</v>
+      </c>
+      <c r="D10" s="52">
+        <f t="shared" si="0"/>
+        <v>35421.120000000003</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="52">
+        <v>288</v>
+      </c>
+      <c r="C11" s="52">
+        <f>2.205*81</f>
+        <v>178.60500000000002</v>
+      </c>
+      <c r="D11" s="52">
+        <f t="shared" si="0"/>
+        <v>51438.240000000005</v>
+      </c>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="61">
+        <f>C19</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="I11" s="61">
+        <f>D19</f>
+        <v>359443.66500000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="52">
+        <v>288</v>
+      </c>
+      <c r="C12" s="52">
+        <f>2.205*99</f>
+        <v>218.29500000000002</v>
+      </c>
+      <c r="D12" s="52">
+        <f t="shared" si="0"/>
+        <v>62868.960000000006</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="53">
+        <v>170</v>
+      </c>
+      <c r="C13" s="53">
+        <f>2.205*88</f>
+        <v>194.04000000000002</v>
+      </c>
+      <c r="D13" s="53">
+        <f t="shared" si="0"/>
+        <v>32986.800000000003</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="63">
+        <f>I15/H15</f>
+        <v>279.72252186185523</v>
+      </c>
+      <c r="H15" s="56">
+        <f>H7+H11</f>
+        <v>10840.8</v>
+      </c>
+      <c r="I15" s="56">
+        <f>I11+I7</f>
+        <v>3032415.915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="51">
+        <v>74</v>
+      </c>
+      <c r="C16" s="51">
+        <v>0</v>
+      </c>
+      <c r="D16" s="51">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="52">
+        <v>321</v>
+      </c>
+      <c r="C17" s="52">
+        <v>0</v>
+      </c>
+      <c r="D17" s="52">
+        <v>0</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80">
+        <v>338</v>
+      </c>
+      <c r="C18" s="80">
+        <v>0</v>
+      </c>
+      <c r="D18" s="80">
+        <v>0</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>1675.8000000000002</v>
+      </c>
+      <c r="D19" s="53">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>359443.66500000004</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="61">
+        <v>4100</v>
+      </c>
+      <c r="I19" s="61">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="60"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F23" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="63">
+        <f>I23/H23</f>
+        <v>281.30795640126365</v>
+      </c>
+      <c r="H23" s="56">
+        <f>H15+H19</f>
+        <v>14940.8</v>
+      </c>
+      <c r="I23" s="56">
+        <f>I19+I15</f>
+        <v>4202965.915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F24" s="36"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0FC19-7574-4CE4-850E-55A2B515E3A9}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -4316,62 +5254,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -4388,12 +5326,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>23108.400000000001</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -4410,10 +5348,10 @@
         <f t="shared" si="0"/>
         <v>29463.21</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -4430,16 +5368,16 @@
         <f t="shared" si="0"/>
         <v>38221.47</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="16">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="16">
         <v>9165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="16">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -4459,10 +5397,10 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -4479,12 +5417,12 @@
         <f t="shared" si="0"/>
         <v>54792.045000000006</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -4501,10 +5439,10 @@
         <f t="shared" si="0"/>
         <v>35421.120000000003</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -4521,13 +5459,13 @@
         <f t="shared" si="0"/>
         <v>51438.240000000005</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21">
         <f>C19</f>
         <v>1675.8000000000002</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="21">
         <f>D19</f>
         <v>329318.95500000002</v>
       </c>
@@ -4547,10 +5485,10 @@
         <f>B12*C12</f>
         <v>32744.250000000004</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -4567,42 +5505,42 @@
         <f t="shared" si="0"/>
         <v>32986.800000000003</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="19">
         <f>H15/G15</f>
         <v>276.94369465353111</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="16">
         <f>G7+G11</f>
         <v>10840.8</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="16">
         <f>H11+H7</f>
         <v>3002291.2050000001</v>
       </c>
@@ -4620,10 +5558,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -4638,12 +5576,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -4655,10 +5593,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -4673,58 +5611,58 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>329318.95500000002</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21">
         <v>4100</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="21">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="19">
         <f>H23/G23</f>
         <v>279.29168484953954</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="16">
         <f>G15+G19</f>
         <v>14940.8</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="16">
         <f>H19+H15</f>
         <v>4172841.2050000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4768,12 +5706,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C39D154-1F26-4105-A8FA-B8B6FE50AD62}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4781,7 +5719,7 @@
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -4803,442 +5741,713 @@
         <v>80.98</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>'Flight Data'!I28</f>
+        <v>475</v>
+      </c>
+      <c r="C9">
+        <f>'Flight Weight&amp;Balance'!H$19-'Changing CG'!B9</f>
+        <v>3625</v>
+      </c>
+      <c r="D9">
+        <v>3700</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
+        <f>10556.84*100</f>
+        <v>1055684</v>
+      </c>
+      <c r="G9">
+        <f>10270.08*100</f>
+        <v>1027008</v>
+      </c>
+      <c r="H9">
+        <f>(F9-G9)/(D9-E9) *(C9-E9) +G9</f>
+        <v>1034177</v>
+      </c>
+      <c r="I9">
+        <f>(H9+'Flight Weight&amp;Balance'!I$15)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C9)</f>
+        <v>281.11773389650074</v>
+      </c>
+      <c r="J9">
+        <f>(I9-B$1)/B$2</f>
+        <v>0.36500041857867044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f>'Flight Data'!I29</f>
+        <v>524</v>
+      </c>
+      <c r="C10">
+        <f>'Flight Weight&amp;Balance'!H$19-'Changing CG'!B10</f>
+        <v>3576</v>
+      </c>
+      <c r="D10">
+        <v>3600</v>
+      </c>
+      <c r="E10">
+        <v>3500</v>
+      </c>
+      <c r="F10">
+        <f>10270.08*100</f>
+        <v>1027008</v>
+      </c>
+      <c r="G10">
+        <f>9983.4*100</f>
+        <v>998340</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H14" si="0">(F10-G10)/(D10-E10) *(C10-E10) +G10</f>
+        <v>1020127.68</v>
+      </c>
+      <c r="I10">
+        <f>(H10+'Flight Weight&amp;Balance'!I$15)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C10)</f>
+        <v>281.09869006991846</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J14" si="1">(I10-B$1)/B$2</f>
+        <v>0.36476525154258405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <f>'Flight Data'!I30</f>
+        <v>553</v>
+      </c>
+      <c r="C11">
+        <f>'Flight Weight&amp;Balance'!H$19-'Changing CG'!B11</f>
+        <v>3547</v>
+      </c>
+      <c r="D11">
+        <v>3600</v>
+      </c>
+      <c r="E11">
+        <v>3500</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F13" si="2">10270.08*100</f>
+        <v>1027008</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G13" si="3">9983.4*100</f>
+        <v>998340</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1011813.96</v>
+      </c>
+      <c r="I11">
+        <f>(H11+'Flight Weight&amp;Balance'!I$15)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C11)</f>
+        <v>281.08744040089522</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.3646263324388147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <f>'Flight Data'!I31</f>
+        <v>577</v>
+      </c>
+      <c r="C12">
+        <f>'Flight Weight&amp;Balance'!H$19-'Changing CG'!B12</f>
+        <v>3523</v>
+      </c>
+      <c r="D12">
+        <v>3600</v>
+      </c>
+      <c r="E12">
+        <v>3500</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1027008</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>998340</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1004933.64</v>
+      </c>
+      <c r="I12">
+        <f>(H12+'Flight Weight&amp;Balance'!I$15)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C12)</f>
+        <v>281.07809597738765</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.36451094069384593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f>'Flight Data'!I32</f>
+        <v>598</v>
+      </c>
+      <c r="C13">
+        <f>'Flight Weight&amp;Balance'!H$19-'Changing CG'!B13</f>
+        <v>3502</v>
+      </c>
+      <c r="D13">
+        <v>3600</v>
+      </c>
+      <c r="E13">
+        <v>3500</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1027008</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>998340</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>998913.36</v>
+      </c>
+      <c r="I13">
+        <f>(H13+'Flight Weight&amp;Balance'!I$15)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C13)</f>
+        <v>281.06989395376075</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.36440965613436344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f>'Flight Data'!I33</f>
+        <v>640</v>
+      </c>
+      <c r="C14">
+        <f>'Flight Weight&amp;Balance'!H$19-'Changing CG'!B14</f>
+        <v>3460</v>
+      </c>
+      <c r="D14">
+        <v>3500</v>
+      </c>
+      <c r="E14">
+        <v>3400</v>
+      </c>
+      <c r="F14">
+        <f>9983.4*100</f>
+        <v>998340</v>
+      </c>
+      <c r="G14">
+        <f>9696.97*100</f>
+        <v>969696.99999999988</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>986882.79999999993</v>
+      </c>
+      <c r="I14">
+        <f>(H14+'Flight Weight&amp;Balance'!I$15)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C14)</f>
+        <v>281.0541169025509</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.36421482961905283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>93</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
         <v>95</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E17" t="s">
         <v>97</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F17" t="s">
         <v>98</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G17" t="s">
         <v>99</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H17" t="s">
         <v>100</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I17" t="s">
         <v>101</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B18">
         <f>'Flight Data'!L59</f>
         <v>778</v>
       </c>
-      <c r="C8">
-        <f>'Flight Weight&amp;Balance'!G$19-B8</f>
+      <c r="C18">
+        <f>'Flight Weight&amp;Balance'!H$19-B18</f>
         <v>3322</v>
       </c>
-      <c r="D8">
+      <c r="D18">
         <v>3400</v>
       </c>
-      <c r="E8">
-        <f>D8-100</f>
+      <c r="E18">
+        <f>D18-100</f>
         <v>3300</v>
       </c>
-      <c r="F8">
+      <c r="F18">
         <f>9696.97*100</f>
         <v>969696.99999999988</v>
       </c>
-      <c r="G8">
+      <c r="G18">
         <f>9410.62*100</f>
         <v>941062.00000000012</v>
       </c>
-      <c r="H8">
-        <f>((F8-G8)/(D8-E8))*(C8-E8)+G8</f>
+      <c r="H18">
+        <f>((F18-G18)/(D18-E18))*(C18-E18)+G18</f>
         <v>947361.70000000007</v>
       </c>
-      <c r="I8">
-        <f>('Flight Weight&amp;Balance'!H$15+H8)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C8)</f>
+      <c r="I18">
+        <f>('Flight Weight&amp;Balance'!I$15+H18)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C18)</f>
         <v>281.00217577032794</v>
       </c>
-      <c r="J8">
-        <f>(I8-B$1)/B$2</f>
+      <c r="J18">
+        <f>(I18-B$1)/B$2</f>
         <v>0.36357342270101178</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f>A8+1</f>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>A18+1</f>
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B19">
         <f>'Flight Data'!L60</f>
         <v>797</v>
       </c>
-      <c r="C9">
-        <f>'Flight Weight&amp;Balance'!G$19-B9</f>
+      <c r="C19">
+        <f>'Flight Weight&amp;Balance'!H$19-B19</f>
         <v>3303</v>
       </c>
-      <c r="D9">
+      <c r="D19">
         <v>3400</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E14" si="0">D9-100</f>
+      <c r="E19">
+        <f t="shared" ref="E19:E24" si="4">D19-100</f>
         <v>3300</v>
       </c>
-      <c r="F9">
+      <c r="F19">
         <f>9696.97*100</f>
         <v>969696.99999999988</v>
       </c>
-      <c r="G9">
-        <f>F11</f>
+      <c r="G19">
+        <f>F21</f>
         <v>941062.00000000012</v>
       </c>
-      <c r="H9">
-        <f t="shared" ref="H9:H19" si="1">((F9-G9)/(D9-E9))*(C9-E9)+G9</f>
+      <c r="H19">
+        <f t="shared" ref="H19:H29" si="5">((F19-G19)/(D19-E19))*(C19-E19)+G19</f>
         <v>941921.05000000016</v>
       </c>
-      <c r="I9">
-        <f>('Flight Weight&amp;Balance'!H$15+H9)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C9)</f>
+      <c r="I19">
+        <f>('Flight Weight&amp;Balance'!I$15+H19)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C19)</f>
         <v>280.9949917985266</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J14" si="2">(I9-B$1)/B$2</f>
+      <c r="J19">
+        <f>(I19-B$1)/B$2</f>
         <v>0.36348470978669539</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" ref="A10:A14" si="3">A9+1</f>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" ref="A20:A24" si="6">A19+1</f>
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B20">
         <f>'Flight Data'!L61</f>
         <v>826</v>
       </c>
-      <c r="C10">
-        <f>'Flight Weight&amp;Balance'!G$19-B10</f>
+      <c r="C20">
+        <f>'Flight Weight&amp;Balance'!H$19-B20</f>
         <v>3274</v>
       </c>
-      <c r="D10">
+      <c r="D20">
         <v>3300</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="E20">
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="F10">
+      <c r="F20">
         <f>9410.62*100</f>
         <v>941062.00000000012</v>
       </c>
-      <c r="G10">
+      <c r="G20">
         <f>9124.8*100</f>
         <v>912479.99999999988</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="H20">
+        <f t="shared" si="5"/>
         <v>933630.68</v>
       </c>
-      <c r="I10">
-        <f>('Flight Weight&amp;Balance'!H$15+H10)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C10)</f>
+      <c r="I20">
+        <f>('Flight Weight&amp;Balance'!I$15+H20)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C20)</f>
         <v>280.98496578059911</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
+      <c r="J20">
+        <f>(I20-B$1)/B$2</f>
         <v>0.36336090121757358</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="3"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B21">
         <f>'Flight Data'!L62</f>
         <v>839</v>
       </c>
-      <c r="C11">
-        <f>'Flight Weight&amp;Balance'!G$19-B11</f>
+      <c r="C21">
+        <f>'Flight Weight&amp;Balance'!H$19-B21</f>
         <v>3261</v>
       </c>
-      <c r="D11">
+      <c r="D21">
         <v>3300</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="E21">
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F14" si="4">9410.62*100</f>
+      <c r="F21">
+        <f t="shared" ref="F21:F24" si="7">9410.62*100</f>
         <v>941062.00000000012</v>
       </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G14" si="5">9124.8*100</f>
+      <c r="G21">
+        <f t="shared" ref="G21:G24" si="8">9124.8*100</f>
         <v>912479.99999999988</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="H21">
+        <f t="shared" si="5"/>
         <v>929915.02</v>
       </c>
-      <c r="I11">
-        <f>('Flight Weight&amp;Balance'!H$15+H11)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C11)</f>
+      <c r="I21">
+        <f>('Flight Weight&amp;Balance'!I$15+H21)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C21)</f>
         <v>280.98050851664328</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
+      <c r="J21">
+        <f>(I21-B$1)/B$2</f>
         <v>0.36330585967699774</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="3"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B22">
         <f>'Flight Data'!L63</f>
         <v>857</v>
       </c>
-      <c r="C12">
-        <f>'Flight Weight&amp;Balance'!G$19-B12</f>
+      <c r="C22">
+        <f>'Flight Weight&amp;Balance'!H$19-B22</f>
         <v>3243</v>
       </c>
-      <c r="D12">
+      <c r="D22">
         <v>3300</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="E22">
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
+      <c r="F22">
+        <f t="shared" si="7"/>
         <v>941062.00000000012</v>
       </c>
-      <c r="G12">
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="5"/>
-        <v>912479.99999999988</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
         <v>924770.26</v>
       </c>
-      <c r="I12">
-        <f>('Flight Weight&amp;Balance'!H$15+H12)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C12)</f>
+      <c r="I22">
+        <f>('Flight Weight&amp;Balance'!I$15+H22)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C22)</f>
         <v>280.97432333603149</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
+      <c r="J22">
+        <f>(I22-B$1)/B$2</f>
         <v>0.3632294805634908</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="3"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B23">
         <f>'Flight Data'!L64</f>
         <v>872</v>
       </c>
-      <c r="C13">
-        <f>'Flight Weight&amp;Balance'!G$19-B13</f>
+      <c r="C23">
+        <f>'Flight Weight&amp;Balance'!H$19-B23</f>
         <v>3228</v>
       </c>
-      <c r="D13">
+      <c r="D23">
         <v>3300</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="E23">
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
+      <c r="F23">
+        <f t="shared" si="7"/>
         <v>941062.00000000012</v>
       </c>
-      <c r="G13">
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="5"/>
-        <v>912479.99999999988</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
         <v>920482.96</v>
       </c>
-      <c r="I13">
-        <f>('Flight Weight&amp;Balance'!H$15+H13)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C13)</f>
+      <c r="I23">
+        <f>('Flight Weight&amp;Balance'!I$15+H23)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C23)</f>
         <v>280.96915692880702</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
+      <c r="J23">
+        <f>(I23-B$1)/B$2</f>
         <v>0.36316568200552013</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="3"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B24">
         <f>'Flight Data'!L65</f>
         <v>889</v>
       </c>
-      <c r="C14">
-        <f>'Flight Weight&amp;Balance'!G$19-B14</f>
+      <c r="C24">
+        <f>'Flight Weight&amp;Balance'!H$19-B24</f>
         <v>3211</v>
       </c>
-      <c r="D14">
+      <c r="D24">
         <v>3300</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+      <c r="E24">
+        <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
+      <c r="F24">
+        <f t="shared" si="7"/>
         <v>941062.00000000012</v>
       </c>
-      <c r="G14">
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>912479.99999999988</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="5"/>
-        <v>912479.99999999988</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
         <v>915624.0199999999</v>
       </c>
-      <c r="I14">
-        <f>('Flight Weight&amp;Balance'!H$15+H14)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C14)</f>
+      <c r="I24">
+        <f>('Flight Weight&amp;Balance'!I$15+H24)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C24)</f>
         <v>280.96328833316733</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
+      <c r="J24">
+        <f>(I24-B$1)/B$2</f>
         <v>0.36309321231374814</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D27" t="s">
         <v>96</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E27" t="s">
         <v>97</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F27" t="s">
         <v>98</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G27" t="s">
         <v>99</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H27" t="s">
         <v>100</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I27" t="s">
         <v>101</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B28">
         <f>'Flight Data'!L75</f>
         <v>912</v>
       </c>
-      <c r="C18">
-        <f>'Sartaj Moved Weight and Balance'!G$19-'Changing CG'!B18</f>
+      <c r="C28">
+        <f>'Sartaj Moved Weight and Balance'!G$19-'Changing CG'!B28</f>
         <v>3188</v>
       </c>
-      <c r="D18">
+      <c r="D28">
         <v>3200</v>
       </c>
-      <c r="E18">
+      <c r="E28">
         <v>3100</v>
       </c>
-      <c r="F18">
+      <c r="F28">
         <f>9124.8*100</f>
         <v>912479.99999999988</v>
       </c>
-      <c r="G18">
+      <c r="G28">
         <f>8839.04*100</f>
         <v>883904.00000000012</v>
       </c>
-      <c r="H18">
-        <f>((F18-G18)/(D18-E18))*(C18-E18)+G18</f>
+      <c r="H28">
+        <f>((F28-G28)/(D28-E28))*(C28-E28)+G28</f>
         <v>909050.87999999989</v>
       </c>
-      <c r="I18">
-        <f>('Flight Weight&amp;Balance'!H$15+'Changing CG'!H18)/('Flight Weight&amp;Balance'!G$15+'Changing CG'!C18)</f>
+      <c r="I28">
+        <f>('Flight Weight&amp;Balance'!I$15+'Changing CG'!H28)/('Flight Weight&amp;Balance'!H$15+'Changing CG'!C28)</f>
         <v>280.95537715271445</v>
       </c>
-      <c r="J18">
-        <f>(I18-B$1)/B$2</f>
+      <c r="J28">
+        <f>(I28-B$1)/B$2</f>
         <v>0.36299551929753576</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B29">
         <f>'Flight Data'!L76</f>
         <v>944</v>
       </c>
-      <c r="C19">
-        <f>'Sartaj Moved Weight and Balance'!G$19-'Changing CG'!B19</f>
+      <c r="C29">
+        <f>'Sartaj Moved Weight and Balance'!G$19-'Changing CG'!B29</f>
         <v>3156</v>
       </c>
-      <c r="D19">
+      <c r="D29">
         <v>3200</v>
       </c>
-      <c r="E19">
+      <c r="E29">
         <v>3100</v>
       </c>
-      <c r="F19">
+      <c r="F29">
         <f>9124.8*100</f>
         <v>912479.99999999988</v>
       </c>
-      <c r="G19">
+      <c r="G29">
         <f>8839.04*100</f>
         <v>883904.00000000012</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
+      <c r="H29">
+        <f t="shared" si="5"/>
         <v>899906.55999999994</v>
       </c>
-      <c r="I19">
-        <f>('Sartaj Moved Weight and Balance'!H$15+'Changing CG'!H19)/('Sartaj Moved Weight and Balance'!G$15+'Changing CG'!C19)</f>
+      <c r="I29">
+        <f>('Sartaj Moved Weight and Balance'!H$15+'Changing CG'!H29)/('Sartaj Moved Weight and Balance'!G$15+'Changing CG'!C29)</f>
         <v>278.79213570244627</v>
       </c>
-      <c r="J19">
-        <f>(I19-B$1)/B$2</f>
+      <c r="J29">
+        <f>(I29-B$1)/B$2</f>
         <v>0.33628223885460939</v>
       </c>
     </row>
@@ -5247,7 +6456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC9CFEA-7568-4A40-8F5A-02AE53ACD28F}">
   <dimension ref="A1:M84"/>
   <sheetViews>
@@ -6673,7 +7882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E09AA9D-75B0-4846-B417-08818D0C169A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -6694,62 +7903,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -6766,12 +7975,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -6788,10 +7997,10 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -6808,16 +8017,16 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="16">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="16">
         <v>9165</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="16">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -6837,10 +8046,10 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -6857,12 +8066,12 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -6879,10 +8088,10 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -6899,13 +8108,13 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="21">
         <f>D19</f>
         <v>324157.05000000005</v>
       </c>
@@ -6925,10 +8134,10 @@
         <f t="shared" si="0"/>
         <v>43182.720000000001</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -6945,42 +8154,42 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="19">
         <f>H15/G15</f>
         <v>280.17165733035131</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="16">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="16">
         <f>H11+H7</f>
         <v>2997129.3</v>
       </c>
@@ -6998,10 +8207,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -7016,12 +8225,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -7033,10 +8242,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -7051,533 +8260,59 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>324157.05000000005</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="21">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="19">
         <f>H23/G23</f>
         <v>282.60290659926528</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="16">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="16">
         <f>H19+H15</f>
         <v>4167679.3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E9:H10"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90FF99-B0AB-4C2B-B79F-87D6BC45997A}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="5">
-        <v>131</v>
-      </c>
-      <c r="C5" s="2">
-        <f>2.205*95</f>
-        <v>209.47499999999999</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
-        <v>27441.224999999999</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="5">
-        <v>131</v>
-      </c>
-      <c r="C6" s="2">
-        <f>2.205*92</f>
-        <v>202.86</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>26574.660000000003</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="5">
-        <v>214</v>
-      </c>
-      <c r="C7" s="2">
-        <f>2.205*66</f>
-        <v>145.53</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>31143.420000000002</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="13">
-        <v>291.64999999999998</v>
-      </c>
-      <c r="G7" s="13">
-        <v>9165</v>
-      </c>
-      <c r="H7" s="13">
-        <f>G7*F7</f>
-        <v>2672972.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="5">
-        <v>214</v>
-      </c>
-      <c r="C8" s="2">
-        <f>2.205*61</f>
-        <v>134.505</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>28784.07</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="5">
-        <v>251</v>
-      </c>
-      <c r="C9" s="2">
-        <f>2.205*75</f>
-        <v>165.375</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>41509.125</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="5">
-        <v>251</v>
-      </c>
-      <c r="C10" s="2">
-        <f>2.205*78</f>
-        <v>171.99</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>43169.490000000005</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="5">
-        <v>288</v>
-      </c>
-      <c r="C11" s="2">
-        <f>2.205*86</f>
-        <v>189.63</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>54613.440000000002</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
-        <f>C19</f>
-        <v>1532.4750000000004</v>
-      </c>
-      <c r="H11" s="18">
-        <f>D19</f>
-        <v>303465.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="5">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2">
-        <f>2.205*68</f>
-        <v>149.94</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>22491</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="5">
-        <v>170</v>
-      </c>
-      <c r="C13" s="2">
-        <f>2.205*74</f>
-        <v>163.17000000000002</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>27738.9</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="16">
-        <f>H15/G15</f>
-        <v>278.23739527318361</v>
-      </c>
-      <c r="G15" s="13">
-        <f>G7+G11</f>
-        <v>10697.475</v>
-      </c>
-      <c r="H15" s="13">
-        <f>H11+H7</f>
-        <v>2976437.58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="5">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5">
-        <v>321</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>338</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
-        <f>SUM(C5:C13)+SUM(C16:C18)</f>
-        <v>1532.4750000000004</v>
-      </c>
-      <c r="D19" s="9">
-        <f>SUM(D5:D13)+SUM(D16:D18)</f>
-        <v>303465.33</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
-        <f>'Reference Data'!D18</f>
-        <v>4050</v>
-      </c>
-      <c r="H19" s="18">
-        <f>11705.5*100</f>
-        <v>1170550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="16">
-        <f>H23/G23</f>
-        <v>281.19983793835894</v>
-      </c>
-      <c r="G23" s="13">
-        <f>G15+G19</f>
-        <v>14747.475</v>
-      </c>
-      <c r="H23" s="13">
-        <f>H19+H15</f>
-        <v>4146987.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -7622,10 +8357,484 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90FF99-B0AB-4C2B-B79F-87D6BC45997A}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2">
+        <f>2.205*95</f>
+        <v>209.47499999999999</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:D13" si="0">B5*C5</f>
+        <v>27441.224999999999</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2">
+        <f>2.205*92</f>
+        <v>202.86</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>26574.660000000003</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5">
+        <v>214</v>
+      </c>
+      <c r="C7" s="2">
+        <f>2.205*66</f>
+        <v>145.53</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>31143.420000000002</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="16">
+        <v>291.64999999999998</v>
+      </c>
+      <c r="G7" s="16">
+        <v>9165</v>
+      </c>
+      <c r="H7" s="16">
+        <f>G7*F7</f>
+        <v>2672972.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5">
+        <v>214</v>
+      </c>
+      <c r="C8" s="2">
+        <f>2.205*61</f>
+        <v>134.505</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>28784.07</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>251</v>
+      </c>
+      <c r="C9" s="2">
+        <f>2.205*75</f>
+        <v>165.375</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>41509.125</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>251</v>
+      </c>
+      <c r="C10" s="2">
+        <f>2.205*78</f>
+        <v>171.99</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>43169.490000000005</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5">
+        <v>288</v>
+      </c>
+      <c r="C11" s="2">
+        <f>2.205*86</f>
+        <v>189.63</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>54613.440000000002</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21">
+        <f>C19</f>
+        <v>1532.4750000000004</v>
+      </c>
+      <c r="H11" s="21">
+        <f>D19</f>
+        <v>303465.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2">
+        <f>2.205*68</f>
+        <v>149.94</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>22491</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2">
+        <f>2.205*74</f>
+        <v>163.17000000000002</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>27738.9</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="19">
+        <f>H15/G15</f>
+        <v>278.23739527318361</v>
+      </c>
+      <c r="G15" s="16">
+        <f>G7+G11</f>
+        <v>10697.475</v>
+      </c>
+      <c r="H15" s="16">
+        <f>H11+H7</f>
+        <v>2976437.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5">
+        <v>321</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>338</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <f>SUM(C5:C13)+SUM(C16:C18)</f>
+        <v>1532.4750000000004</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(D5:D13)+SUM(D16:D18)</f>
+        <v>303465.33</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21">
+        <f>'Reference Data'!D18</f>
+        <v>4050</v>
+      </c>
+      <c r="H19" s="21">
+        <f>11705.5*100</f>
+        <v>1170550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="19">
+        <f>H23/G23</f>
+        <v>281.19983793835894</v>
+      </c>
+      <c r="G23" s="16">
+        <f>G15+G19</f>
+        <v>14747.475</v>
+      </c>
+      <c r="H23" s="16">
+        <f>H19+H15</f>
+        <v>4146987.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="16"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E9:H10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173147DD-84D5-4EF1-B05D-B79BDAC94B57}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA6E229-55D3-4BFF-8637-3151EA371E75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F84CF2-A44F-4EFA-8182-C03834891450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -901,6 +901,148 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -925,148 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4275,7 +4275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA54403-6CD7-4AB9-BDFF-05AB6878CE42}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4290,12 +4290,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -4318,408 +4318,408 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="15">
         <f>'Flight Data'!I28</f>
         <v>475</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="16">
         <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C3</f>
         <v>14465.8</v>
       </c>
-      <c r="E3" s="27">
-        <f>0.453592*D3</f>
+      <c r="E3" s="17">
+        <f t="shared" ref="E3:E8" si="0">0.453592*D3</f>
         <v>6561.5711535999999</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="18">
         <f>'Changing CG'!I9</f>
         <v>281.11773389650074</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="19">
         <f>'Changing CG'!J9</f>
         <v>0.36500041857867044</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31">
+      <c r="A4" s="37"/>
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="20">
         <f>'Flight Data'!I29</f>
         <v>524</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="21">
         <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C4</f>
         <v>14416.8</v>
       </c>
-      <c r="E4" s="33">
-        <f>0.453592*D4</f>
+      <c r="E4" s="22">
+        <f t="shared" si="0"/>
         <v>6539.3451455999993</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="23">
         <f>'Changing CG'!I10</f>
         <v>281.09869006991846</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="24">
         <f>'Changing CG'!J10</f>
         <v>0.36476525154258405</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31">
+      <c r="A5" s="37"/>
+      <c r="B5" s="20">
         <v>3</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="20">
         <f>'Flight Data'!I30</f>
         <v>553</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="21">
         <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C5</f>
         <v>14387.8</v>
       </c>
-      <c r="E5" s="33">
-        <f>0.453592*D5</f>
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
         <v>6526.1909775999993</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="23">
         <f>'Changing CG'!I11</f>
         <v>281.08744040089522</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="24">
         <f>'Changing CG'!J11</f>
         <v>0.3646263324388147</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31">
+      <c r="A6" s="37"/>
+      <c r="B6" s="20">
         <v>4</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="20">
         <f>'Flight Data'!I31</f>
         <v>577</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="21">
         <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C6</f>
         <v>14363.8</v>
       </c>
-      <c r="E6" s="33">
-        <f>0.453592*D6</f>
+      <c r="E6" s="22">
+        <f t="shared" si="0"/>
         <v>6515.3047695999994</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="23">
         <f>'Changing CG'!I12</f>
         <v>281.07809597738765</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="24">
         <f>'Changing CG'!J12</f>
         <v>0.36451094069384593</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31">
+      <c r="A7" s="37"/>
+      <c r="B7" s="20">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="20">
         <f>'Flight Data'!I32</f>
         <v>598</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="21">
         <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C7</f>
         <v>14342.8</v>
       </c>
-      <c r="E7" s="33">
-        <f>0.453592*D7</f>
+      <c r="E7" s="22">
+        <f t="shared" si="0"/>
         <v>6505.7793376</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="23">
         <f>'Changing CG'!I13</f>
         <v>281.06989395376075</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="24">
         <f>'Changing CG'!J13</f>
         <v>0.36440965613436344</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37">
+      <c r="A8" s="38"/>
+      <c r="B8" s="25">
         <v>6</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="25">
         <f>'Flight Data'!I33</f>
         <v>640</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="26">
         <f>'Flight Weight&amp;Balance'!H$23 -'Flight Mass and CG for overleaf'!C8</f>
         <v>14300.8</v>
       </c>
-      <c r="E8" s="39">
-        <f>0.453592*D8</f>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
         <v>6486.7284735999992</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="28">
         <f>'Changing CG'!I14</f>
         <v>281.0541169025509</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="29">
         <f>'Changing CG'!J14</f>
         <v>0.36421482961905283</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="15">
         <f>'Flight Data'!L59</f>
         <v>778</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="16">
         <f>'Flight Weight&amp;Balance'!H$23-C9</f>
         <v>14162.8</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="17">
         <f>D9*0.453592</f>
         <v>6424.1327775999998</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="18">
         <f>'Changing CG'!I18</f>
         <v>281.00217577032794</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="19">
         <f>'Changing CG'!J18</f>
         <v>0.36357342270101178</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31">
+      <c r="A10" s="37"/>
+      <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="20">
         <f>'Flight Data'!L60</f>
         <v>797</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="21">
         <f>'Flight Weight&amp;Balance'!H$23-C10</f>
         <v>14143.8</v>
       </c>
-      <c r="E10" s="33">
-        <f t="shared" ref="E10:E15" si="0">D10*0.453592</f>
+      <c r="E10" s="22">
+        <f t="shared" ref="E10:E15" si="1">D10*0.453592</f>
         <v>6415.5145295999992</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="23">
         <f>'Changing CG'!I19</f>
         <v>280.9949917985266</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="24">
         <f>'Changing CG'!J19</f>
         <v>0.36348470978669539</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31">
+      <c r="A11" s="37"/>
+      <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="20">
         <f>'Flight Data'!L61</f>
         <v>826</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="21">
         <f>'Flight Weight&amp;Balance'!H$23-C11</f>
         <v>14114.8</v>
       </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
+      <c r="E11" s="22">
+        <f t="shared" si="1"/>
         <v>6402.3603616</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="23">
         <f>'Changing CG'!I20</f>
         <v>280.98496578059911</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="24">
         <f>'Changing CG'!J20</f>
         <v>0.36336090121757358</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31">
+      <c r="A12" s="37"/>
+      <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="20">
         <f>'Flight Data'!L62</f>
         <v>839</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="21">
         <f>'Flight Weight&amp;Balance'!H$23-C12</f>
         <v>14101.8</v>
       </c>
-      <c r="E12" s="33">
-        <f t="shared" si="0"/>
+      <c r="E12" s="22">
+        <f t="shared" si="1"/>
         <v>6396.4636655999993</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="23">
         <f>'Changing CG'!I21</f>
         <v>280.98050851664328</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="24">
         <f>'Changing CG'!J21</f>
         <v>0.36330585967699774</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31">
+      <c r="A13" s="37"/>
+      <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="20">
         <f>'Flight Data'!L63</f>
         <v>857</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="21">
         <f>'Flight Weight&amp;Balance'!H$23-C13</f>
         <v>14083.8</v>
       </c>
-      <c r="E13" s="33">
-        <f t="shared" si="0"/>
+      <c r="E13" s="22">
+        <f t="shared" si="1"/>
         <v>6388.2990095999994</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="23">
         <f>'Changing CG'!I22</f>
         <v>280.97432333603149</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="24">
         <f>'Changing CG'!J22</f>
         <v>0.3632294805634908</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31">
+      <c r="A14" s="37"/>
+      <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="20">
         <f>'Flight Data'!L64</f>
         <v>872</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="21">
         <f>'Flight Weight&amp;Balance'!H$23-C14</f>
         <v>14068.8</v>
       </c>
-      <c r="E14" s="33">
-        <f t="shared" si="0"/>
+      <c r="E14" s="22">
+        <f t="shared" si="1"/>
         <v>6381.4951295999999</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="23">
         <f>'Changing CG'!I23</f>
         <v>280.96915692880702</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="24">
         <f>'Changing CG'!J23</f>
         <v>0.36316568200552013</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37">
+      <c r="A15" s="38"/>
+      <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="25">
         <f>'Flight Data'!L65</f>
         <v>889</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="26">
         <f>'Flight Weight&amp;Balance'!H$23-C15</f>
         <v>14051.8</v>
       </c>
-      <c r="E15" s="39">
-        <f t="shared" si="0"/>
+      <c r="E15" s="27">
+        <f t="shared" si="1"/>
         <v>6373.7840655999998</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="28">
         <f>'Changing CG'!I24</f>
         <v>280.96328833316733</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="29">
         <f>'Changing CG'!J24</f>
         <v>0.36309321231374814</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="15">
         <v>1</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="15">
         <f>'Changing CG'!B28</f>
         <v>912</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="16">
         <f>'Flight Weight&amp;Balance'!H$23-'Flight Mass and CG for overleaf'!C16</f>
         <v>14028.8</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="17">
         <f>D16*0.453592</f>
         <v>6363.3514495999998</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="18">
         <f>'Changing CG'!I28</f>
         <v>280.95537715271445</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="19">
         <f>'Changing CG'!J28</f>
         <v>0.36299551929753576</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37">
+      <c r="A17" s="38"/>
+      <c r="B17" s="25">
         <v>2</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="25">
         <f>'Changing CG'!B29</f>
         <v>944</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="26">
         <f>'Flight Weight&amp;Balance'!H$23-'Flight Mass and CG for overleaf'!C17</f>
         <v>13996.8</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="27">
         <f>D17*0.453592</f>
         <v>6348.8365055999993</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="28">
         <f>'Changing CG'!I29</f>
         <v>278.79213570244627</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="29">
         <f>'Changing CG'!J29</f>
         <v>0.33628223885460939</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4738,8 +4738,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4757,431 +4757,453 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="69" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="31">
         <v>131</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="31">
         <f>80*2.205</f>
         <v>176.4</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="31">
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>23108.400000000001</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="32">
         <v>131</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="32">
         <f>2.205*102</f>
         <v>224.91</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="32">
         <f t="shared" si="0"/>
         <v>29463.21</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="32">
         <v>214</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="32">
         <f>2.205*81</f>
         <v>178.60500000000002</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="32">
         <f t="shared" si="0"/>
         <v>38221.47</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="71">
         <v>291.64999999999998</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="47">
         <v>9165</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="47">
         <f>H7*G7</f>
         <v>2672972.25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="32">
         <v>214</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="32">
         <f>2.205*66</f>
         <v>145.53</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="32">
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="32">
         <v>251</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="32">
         <f>2.205*99</f>
         <v>218.29500000000002</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="32">
         <f t="shared" si="0"/>
         <v>54792.045000000006</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="32">
         <v>251</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="32">
         <f>2.205*64</f>
         <v>141.12</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="32">
         <f t="shared" si="0"/>
         <v>35421.120000000003</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="32">
         <v>288</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="32">
         <f>2.205*81</f>
         <v>178.60500000000002</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="32">
         <f t="shared" si="0"/>
         <v>51438.240000000005</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="61">
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="53">
         <f>C19</f>
         <v>1675.8000000000002</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="53">
         <f>D19</f>
         <v>359443.66500000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="32">
         <v>288</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="32">
         <f>2.205*99</f>
         <v>218.29500000000002</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="32">
         <f t="shared" si="0"/>
         <v>62868.960000000006</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="33">
         <v>170</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="33">
         <f>2.205*88</f>
         <v>194.04000000000002</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="33">
         <f t="shared" si="0"/>
         <v>32986.800000000003</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="45">
         <f>I15/H15</f>
         <v>279.72252186185523</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="47">
         <f>H7+H11</f>
         <v>10840.8</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="47">
         <f>I11+I7</f>
         <v>3032415.915</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="31">
         <v>74</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="31">
         <v>0</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="31">
         <v>0</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="32">
         <v>321</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="32">
         <v>0</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="32">
         <v>0</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35">
         <v>338</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="35">
         <v>0</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="35">
         <v>0</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33">
         <f>SUM(C5:C13)+SUM(C16:C18)</f>
         <v>1675.8000000000002</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="33">
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>359443.66500000004</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="61">
+      <c r="E19" s="30"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="53">
         <v>4100</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="53">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="60"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="45">
         <f>I23/H23</f>
         <v>281.30795640126365</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="47">
         <f>H15+H19</f>
         <v>14940.8</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="47">
         <f>I19+I15</f>
         <v>4202965.915</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="36"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
@@ -5198,35 +5220,13 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:I2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5254,62 +5254,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="74" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -5326,12 +5326,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>23108.400000000001</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -5348,10 +5348,10 @@
         <f t="shared" si="0"/>
         <v>29463.21</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -5368,16 +5368,16 @@
         <f t="shared" si="0"/>
         <v>38221.47</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="74">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="74">
         <v>9165</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="74">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -5397,10 +5397,10 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -5417,12 +5417,12 @@
         <f t="shared" si="0"/>
         <v>54792.045000000006</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -5439,10 +5439,10 @@
         <f t="shared" si="0"/>
         <v>35421.120000000003</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -5459,13 +5459,13 @@
         <f t="shared" si="0"/>
         <v>51438.240000000005</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79">
         <f>C19</f>
         <v>1675.8000000000002</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="79">
         <f>D19</f>
         <v>329318.95500000002</v>
       </c>
@@ -5485,10 +5485,10 @@
         <f>B12*C12</f>
         <v>32744.250000000004</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -5505,42 +5505,42 @@
         <f t="shared" si="0"/>
         <v>32986.800000000003</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="77">
         <f>H15/G15</f>
         <v>276.94369465353111</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="74">
         <f>G7+G11</f>
         <v>10840.8</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="74">
         <f>H11+H7</f>
         <v>3002291.2050000001</v>
       </c>
@@ -5558,10 +5558,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -5576,12 +5576,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -5593,10 +5593,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -5611,61 +5611,81 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>329318.95500000002</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21">
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79">
         <v>4100</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="79">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="77">
         <f>H23/G23</f>
         <v>279.29168484953954</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="74">
         <f>G15+G19</f>
         <v>14940.8</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="74">
         <f>H19+H15</f>
         <v>4172841.2050000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="16"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -5681,26 +5701,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6086,7 +6086,7 @@
         <v>281.00217577032794</v>
       </c>
       <c r="J18">
-        <f>(I18-B$1)/B$2</f>
+        <f t="shared" ref="J18:J24" si="4">(I18-B$1)/B$2</f>
         <v>0.36357342270101178</v>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
         <v>3400</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E24" si="4">D19-100</f>
+        <f t="shared" ref="E19:E24" si="5">D19-100</f>
         <v>3300</v>
       </c>
       <c r="F19">
@@ -6119,7 +6119,7 @@
         <v>941062.00000000012</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H29" si="5">((F19-G19)/(D19-E19))*(C19-E19)+G19</f>
+        <f t="shared" ref="H19:H29" si="6">((F19-G19)/(D19-E19))*(C19-E19)+G19</f>
         <v>941921.05000000016</v>
       </c>
       <c r="I19">
@@ -6127,13 +6127,13 @@
         <v>280.9949917985266</v>
       </c>
       <c r="J19">
-        <f>(I19-B$1)/B$2</f>
+        <f t="shared" si="4"/>
         <v>0.36348470978669539</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" ref="A20:A24" si="6">A19+1</f>
+        <f t="shared" ref="A20:A24" si="7">A19+1</f>
         <v>3</v>
       </c>
       <c r="B20">
@@ -6148,7 +6148,7 @@
         <v>3300</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="F20">
@@ -6160,7 +6160,7 @@
         <v>912479.99999999988</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>933630.68</v>
       </c>
       <c r="I20">
@@ -6168,13 +6168,13 @@
         <v>280.98496578059911</v>
       </c>
       <c r="J20">
-        <f>(I20-B$1)/B$2</f>
+        <f t="shared" si="4"/>
         <v>0.36336090121757358</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="B21">
@@ -6189,19 +6189,19 @@
         <v>3300</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F24" si="7">9410.62*100</f>
+        <f t="shared" ref="F21:F24" si="8">9410.62*100</f>
         <v>941062.00000000012</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G24" si="8">9124.8*100</f>
+        <f t="shared" ref="G21:G24" si="9">9124.8*100</f>
         <v>912479.99999999988</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>929915.02</v>
       </c>
       <c r="I21">
@@ -6209,13 +6209,13 @@
         <v>280.98050851664328</v>
       </c>
       <c r="J21">
-        <f>(I21-B$1)/B$2</f>
+        <f t="shared" si="4"/>
         <v>0.36330585967699774</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="B22">
@@ -6230,19 +6230,19 @@
         <v>3300</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>941062.00000000012</v>
       </c>
       <c r="G22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>912479.99999999988</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>924770.26</v>
       </c>
       <c r="I22">
@@ -6250,13 +6250,13 @@
         <v>280.97432333603149</v>
       </c>
       <c r="J22">
-        <f>(I22-B$1)/B$2</f>
+        <f t="shared" si="4"/>
         <v>0.3632294805634908</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="B23">
@@ -6271,19 +6271,19 @@
         <v>3300</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>941062.00000000012</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>912479.99999999988</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>920482.96</v>
       </c>
       <c r="I23">
@@ -6291,13 +6291,13 @@
         <v>280.96915692880702</v>
       </c>
       <c r="J23">
-        <f>(I23-B$1)/B$2</f>
+        <f t="shared" si="4"/>
         <v>0.36316568200552013</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="B24">
@@ -6312,19 +6312,19 @@
         <v>3300</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="F24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>941062.00000000012</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>912479.99999999988</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>915624.0199999999</v>
       </c>
       <c r="I24">
@@ -6332,7 +6332,7 @@
         <v>280.96328833316733</v>
       </c>
       <c r="J24">
-        <f>(I24-B$1)/B$2</f>
+        <f t="shared" si="4"/>
         <v>0.36309321231374814</v>
       </c>
     </row>
@@ -6439,7 +6439,7 @@
         <v>883904.00000000012</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>899906.55999999994</v>
       </c>
       <c r="I29">
@@ -7903,62 +7903,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="74" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7975,12 +7975,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -7997,10 +7997,10 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -8017,16 +8017,16 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="74">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="74">
         <v>9165</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="74">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -8046,10 +8046,10 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -8066,12 +8066,12 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -8088,10 +8088,10 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -8108,13 +8108,13 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="79">
         <f>D19</f>
         <v>324157.05000000005</v>
       </c>
@@ -8134,10 +8134,10 @@
         <f t="shared" si="0"/>
         <v>43182.720000000001</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -8154,42 +8154,42 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="77">
         <f>H15/G15</f>
         <v>280.17165733035131</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="74">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="74">
         <f>H11+H7</f>
         <v>2997129.3</v>
       </c>
@@ -8207,10 +8207,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -8225,12 +8225,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -8242,10 +8242,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -8260,82 +8260,62 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>324157.05000000005</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21">
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="79">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="77">
         <f>H23/G23</f>
         <v>282.60290659926528</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="74">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="74">
         <f>H19+H15</f>
         <v>4167679.3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="16"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -8351,6 +8331,26 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8377,62 +8377,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="74" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -8449,12 +8449,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>27441.224999999999</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -8471,10 +8471,10 @@
         <f t="shared" si="0"/>
         <v>26574.660000000003</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -8491,16 +8491,16 @@
         <f t="shared" si="0"/>
         <v>31143.420000000002</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="74">
         <v>291.64999999999998</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="74">
         <v>9165</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="74">
         <f>G7*F7</f>
         <v>2672972.25</v>
       </c>
@@ -8520,10 +8520,10 @@
         <f t="shared" si="0"/>
         <v>28784.07</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -8540,12 +8540,12 @@
         <f t="shared" si="0"/>
         <v>41509.125</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -8562,10 +8562,10 @@
         <f t="shared" si="0"/>
         <v>43169.490000000005</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -8582,13 +8582,13 @@
         <f t="shared" si="0"/>
         <v>54613.440000000002</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79">
         <f>C19</f>
         <v>1532.4750000000004</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="79">
         <f>D19</f>
         <v>303465.33</v>
       </c>
@@ -8608,10 +8608,10 @@
         <f t="shared" si="0"/>
         <v>22491</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -8628,42 +8628,42 @@
         <f t="shared" si="0"/>
         <v>27738.9</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="77">
         <f>H15/G15</f>
         <v>278.23739527318361</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="74">
         <f>G7+G11</f>
         <v>10697.475</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="74">
         <f>H11+H7</f>
         <v>2976437.58</v>
       </c>
@@ -8681,10 +8681,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -8699,12 +8699,12 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
@@ -8716,10 +8716,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
@@ -8734,82 +8734,62 @@
         <f>SUM(D5:D13)+SUM(D16:D18)</f>
         <v>303465.33</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21">
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79">
         <f>'Reference Data'!D18</f>
         <v>4050</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="79">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="77">
         <f>H23/G23</f>
         <v>281.19983793835894</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="74">
         <f>G15+G19</f>
         <v>14747.475</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="74">
         <f>H19+H15</f>
         <v>4146987.58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="16"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:H18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
     <mergeCell ref="E9:H10"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
@@ -8825,6 +8805,26 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Measurement Analysis/Flight Data.xlsx
+++ b/Measurement Analysis/Flight Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarta\OneDrive\Desktop\FlightDynamicsSVV\Measurement Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F84CF2-A44F-4EFA-8182-C03834891450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688180E4-D93D-422A-B13E-90C1AF9E5DC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight Data" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Changing CG Reference" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -950,6 +951,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,12 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2864,7 +2865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
@@ -4275,7 +4276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA54403-6CD7-4AB9-BDFF-05AB6878CE42}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -4833,12 +4834,12 @@
         <f t="shared" ref="D5:D13" si="0">B5*C5</f>
         <v>23108.400000000001</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -4855,7 +4856,7 @@
         <f t="shared" si="0"/>
         <v>29463.21</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="40"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
@@ -4881,10 +4882,10 @@
       <c r="G7" s="71">
         <v>291.64999999999998</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="49">
         <v>9165</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="49">
         <f>H7*G7</f>
         <v>2672972.25</v>
       </c>
@@ -4906,8 +4907,8 @@
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="71"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
@@ -4924,7 +4925,7 @@
         <f t="shared" si="0"/>
         <v>54792.045000000006</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="44" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="40"/>
@@ -4946,7 +4947,7 @@
         <f t="shared" si="0"/>
         <v>35421.120000000003</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="40"/>
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
@@ -4968,11 +4969,11 @@
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="56"/>
-      <c r="H11" s="53">
+      <c r="H11" s="41">
         <f>C19</f>
         <v>1675.8000000000002</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="41">
         <f>D19</f>
         <v>359443.66500000004</v>
       </c>
@@ -4992,10 +4993,10 @@
         <f t="shared" si="0"/>
         <v>62868.960000000006</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
@@ -5012,7 +5013,7 @@
         <f t="shared" si="0"/>
         <v>32986.800000000003</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="44" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="40"/>
@@ -5027,7 +5028,7 @@
       <c r="C14" s="58"/>
       <c r="D14" s="59"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="42"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="40"/>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
@@ -5041,15 +5042,15 @@
       <c r="F15" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="47">
         <f>I15/H15</f>
         <v>279.72252186185523</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="49">
         <f>H7+H11</f>
         <v>10840.8</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="49">
         <f>I11+I7</f>
         <v>3032415.915</v>
       </c>
@@ -5068,9 +5069,9 @@
         <v>0</v>
       </c>
       <c r="F16" s="37"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -5085,7 +5086,7 @@
       <c r="D17" s="32">
         <v>0</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="44" t="s">
         <v>89</v>
       </c>
       <c r="G17" s="40"/>
@@ -5103,7 +5104,7 @@
       <c r="D18" s="35">
         <v>0</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="40"/>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
@@ -5122,24 +5123,24 @@
         <v>359443.66500000004</v>
       </c>
       <c r="E19" s="30"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="53">
+      <c r="F19" s="51"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="41">
         <v>4100</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="41">
         <f>11705.5*100</f>
         <v>1170550</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="50"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="44" t="s">
         <v>90</v>
       </c>
       <c r="G21" s="40"/>
@@ -5147,7 +5148,7 @@
       <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="42"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="40"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
@@ -5156,24 +5157,24 @@
       <c r="F23" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="47">
         <f>I23/H23</f>
         <v>281.30795640126365</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="49">
         <f>H15+H19</f>
         <v>14940.8</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="49">
         <f>I19+I15</f>
         <v>4202965.915</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F24" s="38"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -5204,6 +5205,7 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
@@ -5220,7 +5222,6 @@
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
